--- a/feedback_forms/current_versions/dairy_digester_operator_feedback_v003.xlsx
+++ b/feedback_forms/current_versions/dairy_digester_operator_feedback_v003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5454B-80EA-46FE-BBDB-173859248234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C49A8B-79F2-4A81-89BC-D71A9F863F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="367" yWindow="367" windowWidth="21293" windowHeight="13840" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="30375" yWindow="1590" windowWidth="21600" windowHeight="11100" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <definedName name="jinja_transport_method">'Feedback Form'!$D$102</definedName>
     <definedName name="jinji_transport_recipient">'Feedback Form'!$D$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="331">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -144,500 +144,58 @@
     <t>CARB Methane Plume Detection</t>
   </si>
   <si>
+    <t>Follow-up Form: Dairy and Livestock Sector</t>
+  </si>
+  <si>
+    <t>1.  Please provide feedback in the colored cells below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        The light yellow cells will automatically expand to fit your response length.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Drop down selection cells are blue.</t>
+  </si>
+  <si>
+    <t>2.  Not all sections and fields may apply to your facility for the identified plume.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If a question is not applicable, leave the response blank (or 'Please Select' if it is a drop down field).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.  If there is additional information you would like to provide that is not requested in this form, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     please use the space provided at the bottom of the form for additional comments.</t>
+  </si>
+  <si>
+    <t>4.  Use the local date/time at the facility for timestamp related questions.</t>
+  </si>
+  <si>
+    <t>5.  Depending on your security settings, you may have to click the button 'Enable Editing' near the formula bar when you open this spreadsheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        See https://support.microsoft.com/en-us/office/enable-editing-in-your-document-22caa80b-4552-495d-8fa1-f874461a13a0</t>
+  </si>
+  <si>
+    <t>1.  Incidence/Emission ID</t>
+  </si>
+  <si>
+    <t>2.  Plume ID(s)</t>
+  </si>
+  <si>
+    <t>3.  Plume Observation Timestamp(s):</t>
+  </si>
+  <si>
+    <t>4.  Plume Origin CARB Estimated Latitude</t>
+  </si>
+  <si>
+    <t>5.  Plume Origin CARB Estimated Longitude</t>
+  </si>
+  <si>
+    <t>6.  CARB Message ID</t>
+  </si>
+  <si>
     <t>200-02</t>
-  </si>
-  <si>
-    <t>Facility Name</t>
-  </si>
-  <si>
-    <t>SWIS ID</t>
-  </si>
-  <si>
-    <t>Contact Person Name</t>
-  </si>
-  <si>
-    <t>555-555-5555</t>
-  </si>
-  <si>
-    <t>me@email.com</t>
-  </si>
-  <si>
-    <t>Q7 Answer.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Q9 Answer.</t>
-  </si>
-  <si>
-    <t>CARB Issue Tracking and Feedback Log</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>The '_issue_tracking' tab is used to track comments and their resolutions and maintain a list of issues that still need to be addressed</t>
-  </si>
-  <si>
-    <t>Table 1. Feedback Status Codes</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Feedback received and tracked in this spreadsheet tab</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Feedback has been addressed in part, but has not been completely resolved</t>
-  </si>
-  <si>
-    <t>Consider Future</t>
-  </si>
-  <si>
-    <t>Consider for a future version</t>
-  </si>
-  <si>
-    <t>Resolved</t>
-  </si>
-  <si>
-    <t>Feedback has been resolved</t>
-  </si>
-  <si>
-    <t>Table 2.  Feedback &amp; Status</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Commenter</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>CARB Drop Down Data Tab</t>
-  </si>
-  <si>
-    <t>The _carb_only tab is used in part to create interactive drop down menu options for the Feedback form</t>
-  </si>
-  <si>
-    <t>Please do not edit this tab unless you are a California Air Resources Board (CARB) software developer.</t>
-  </si>
-  <si>
-    <t>Do not remove blank lines or try to reformat this sheet as it will corrupt how the array/spill functions are designed</t>
-  </si>
-  <si>
-    <t>Please Select</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>jinja_emission_identified_flag_fk</t>
-  </si>
-  <si>
-    <t>jinja_emission_location</t>
-  </si>
-  <si>
-    <t>jinja_emission_type_fk</t>
-  </si>
-  <si>
-    <t>Options as a list</t>
-  </si>
-  <si>
-    <t>JSON Schema Tab</t>
-  </si>
-  <si>
-    <t>The _json_schema tab is used to specify formatting schemas should one wish to export spreadsheet data to a json format.</t>
-  </si>
-  <si>
-    <t>Please do not edit this tab unless you are a California Air Resources Board (CARB) software developer</t>
-  </si>
-  <si>
-    <t>Tabs will be imported starting with the row immediately beneath the shaded header.</t>
-  </si>
-  <si>
-    <t>Subsequent rows will also be imported until the first  blank tab name is encountered</t>
-  </si>
-  <si>
-    <t>Tab Name</t>
-  </si>
-  <si>
-    <t>JSON Formatting Schema</t>
-  </si>
-  <si>
-    <t>Feedback Form</t>
-  </si>
-  <si>
-    <t>The _json_metadata tab is used to store key/value pairs to be included in the export of this spreadsheet to json.</t>
-  </si>
-  <si>
-    <t>Key value pairs will be read in starting with the row immediately beneath the green header.</t>
-  </si>
-  <si>
-    <t>Key value pairs will be read on subsequent rows until the first blank key is encountered</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>Red (alert) color</t>
-  </si>
-  <si>
-    <t>#FFCCCB</t>
-  </si>
-  <si>
-    <t>CARB Named Range Diagnostics</t>
-  </si>
-  <si>
-    <t>Run the subroutine list_named_ranges() to update the diagnostic information below</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Named Range</t>
-  </si>
-  <si>
-    <t>Is Drop Down</t>
-  </si>
-  <si>
-    <t>jinja_additional_activities</t>
-  </si>
-  <si>
-    <t>jinja_additional_notes</t>
-  </si>
-  <si>
-    <t>jinja_contact_email</t>
-  </si>
-  <si>
-    <t>$D$34</t>
-  </si>
-  <si>
-    <t>jinja_contact_name</t>
-  </si>
-  <si>
-    <t>$D$35</t>
-  </si>
-  <si>
-    <t>jinja_contact_phone</t>
-  </si>
-  <si>
-    <t>$D$54</t>
-  </si>
-  <si>
-    <t>jinja_emission_cause</t>
-  </si>
-  <si>
-    <t>jinja_emission_cause_notes</t>
-  </si>
-  <si>
-    <t>$D$55</t>
-  </si>
-  <si>
-    <t>jinja_emission_cause_secondary</t>
-  </si>
-  <si>
-    <t>jinja_emission_cause_tertiary</t>
-  </si>
-  <si>
-    <t>$D$42</t>
-  </si>
-  <si>
-    <t>$D$52</t>
-  </si>
-  <si>
-    <t>$D$53</t>
-  </si>
-  <si>
-    <t>jinja_emission_location_notes</t>
-  </si>
-  <si>
-    <t>$D$50</t>
-  </si>
-  <si>
-    <t>$D$51</t>
-  </si>
-  <si>
-    <t>$D$32</t>
-  </si>
-  <si>
-    <t>jinja_facility_name</t>
-  </si>
-  <si>
-    <t>$D$33</t>
-  </si>
-  <si>
-    <t>jinja_id_arb_swis</t>
-  </si>
-  <si>
-    <t>jinja_id_incidence</t>
-  </si>
-  <si>
-    <t>jinja_id_message</t>
-  </si>
-  <si>
-    <t>$D$23</t>
-  </si>
-  <si>
-    <t>jinja_id_plume</t>
-  </si>
-  <si>
-    <t>$D$65</t>
-  </si>
-  <si>
-    <t>jinja_included_in_last_lmr</t>
-  </si>
-  <si>
-    <t>$D$66</t>
-  </si>
-  <si>
-    <t>jinja_included_in_last_lmr_description</t>
-  </si>
-  <si>
-    <t>$D$47</t>
-  </si>
-  <si>
-    <t>jinja_initial_leak_concentration</t>
-  </si>
-  <si>
-    <t>$D$40</t>
-  </si>
-  <si>
-    <t>jinja_inspection_timestamp</t>
-  </si>
-  <si>
-    <t>$D$41</t>
-  </si>
-  <si>
-    <t>jinja_instrument</t>
-  </si>
-  <si>
-    <t>jinja_last_component_leak_monitoring_timestamp</t>
-  </si>
-  <si>
-    <t>$D$72</t>
-  </si>
-  <si>
-    <t>jinja_last_surface_monitoring_timestamp</t>
-  </si>
-  <si>
-    <t>$D$25</t>
-  </si>
-  <si>
-    <t>jinja_lat_carb</t>
-  </si>
-  <si>
-    <t>$D$48</t>
-  </si>
-  <si>
-    <t>jinja_lat_revised</t>
-  </si>
-  <si>
-    <t>$D$26</t>
-  </si>
-  <si>
-    <t>jinja_long_carb</t>
-  </si>
-  <si>
-    <t>$D$49</t>
-  </si>
-  <si>
-    <t>jinja_long_revised</t>
-  </si>
-  <si>
-    <t>$D$61</t>
-  </si>
-  <si>
-    <t>jinja_mitigation_actions</t>
-  </si>
-  <si>
-    <t>$D$62</t>
-  </si>
-  <si>
-    <t>jinja_mitigation_timestamp</t>
-  </si>
-  <si>
-    <t>$D$27</t>
-  </si>
-  <si>
-    <t>$D$24</t>
-  </si>
-  <si>
-    <t>jinja_observation_timestamp</t>
-  </si>
-  <si>
-    <t>jinja_planned_for_next_lmr</t>
-  </si>
-  <si>
-    <t>jinja_planned_for_next_lmr_description</t>
-  </si>
-  <si>
-    <t>$D$64</t>
-  </si>
-  <si>
-    <t>jinja_re_monitored_concentration</t>
-  </si>
-  <si>
-    <t>$D$63</t>
-  </si>
-  <si>
-    <t>jinja_re_monitored_timestamp</t>
-  </si>
-  <si>
-    <t>$D$71</t>
-  </si>
-  <si>
-    <t>$D$60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        The light yellow cells will automatically expand to fit your response length.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        See https://support.microsoft.com/en-us/office/enable-editing-in-your-document-22caa80b-4552-495d-8fa1-f874461a13a0</t>
-  </si>
-  <si>
-    <t>Q15 Answer.</t>
-  </si>
-  <si>
-    <t>Q19 Answer.</t>
-  </si>
-  <si>
-    <t>Q20 Answer</t>
-  </si>
-  <si>
-    <t>Q25 Answer</t>
-  </si>
-  <si>
-    <t>Q27 Answer</t>
-  </si>
-  <si>
-    <t>Q30 Answer</t>
-  </si>
-  <si>
-    <t>_carb_only</t>
-  </si>
-  <si>
-    <t>_carb_only_table_05</t>
-  </si>
-  <si>
-    <t>_carb_only_table_07</t>
-  </si>
-  <si>
-    <t>Tables associated with drop down options</t>
-  </si>
-  <si>
-    <t>1.  Incidence/Emission ID</t>
-  </si>
-  <si>
-    <t>2.  Plume ID(s)</t>
-  </si>
-  <si>
-    <t>5.  Plume Origin CARB Estimated Longitude</t>
-  </si>
-  <si>
-    <t>$B$47:$B$58</t>
-  </si>
-  <si>
-    <t>$B$74:$C$125</t>
-  </si>
-  <si>
-    <t>4.  Plume Origin CARB Estimated Latitude</t>
-  </si>
-  <si>
-    <t>6.  CARB Message ID</t>
-  </si>
-  <si>
-    <t>Working Face (area where active filling was being conducted at the time of detection)</t>
-  </si>
-  <si>
-    <t>$D$43</t>
-  </si>
-  <si>
-    <t>$D$73</t>
-  </si>
-  <si>
-    <t>$D$36</t>
-  </si>
-  <si>
-    <t>$D$56</t>
-  </si>
-  <si>
-    <t>$D$28</t>
-  </si>
-  <si>
-    <t>$D$67</t>
-  </si>
-  <si>
-    <t>dairy_digester_v01_00</t>
-  </si>
-  <si>
-    <t>dairy_digester</t>
-  </si>
-  <si>
-    <t>Response-form_DairyDigesterOperators</t>
-  </si>
-  <si>
-    <t>ISD</t>
-  </si>
-  <si>
-    <t>File received from ISD regarding dairy digester feedback.  This file was copied locally and renamed to: dairy_digester_operator_feedback_v001.xlsx</t>
-  </si>
-  <si>
-    <t>Creating dairy_digester_operator_feedback_v002.xlsx</t>
-  </si>
-  <si>
-    <t>Tony Held</t>
-  </si>
-  <si>
-    <t>Follow-up Form: Dairy and Livestock Sector</t>
-  </si>
-  <si>
-    <t>1.  Please provide feedback in the colored cells below.</t>
-  </si>
-  <si>
-    <t>2.  Not all sections and fields may apply to your facility for the identified plume.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     If a question is not applicable, leave the response blank (or 'Please Select' if it is a drop down field).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.  If there is additional information you would like to provide that is not requested in this form, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     please use the space provided at the bottom of the form for additional comments.</t>
-  </si>
-  <si>
-    <t>3.  Plume Observation Timestamp(s):</t>
-  </si>
-  <si>
-    <t>Created based on landfill_operator_feedback_v070.xlsx to transfer contents of v001 to a useable excel template
-Notification Timestamp not included because that is based on when the email is sent (which can't be known when creating the spreadsheet)</t>
   </si>
   <si>
     <r>
@@ -664,12 +222,6 @@
     <t>Digester Facility Name</t>
   </si>
   <si>
-    <t>Livestock Facility Name</t>
-  </si>
-  <si>
-    <t>CIWQS Place ID</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -691,6 +243,9 @@
     </r>
   </si>
   <si>
+    <t>Livestock Facility Name</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -710,6 +265,9 @@
       </rPr>
       <t>Facility CIWQS Place ID:</t>
     </r>
+  </si>
+  <si>
+    <t>CIWQS Place ID</t>
   </si>
   <si>
     <r>
@@ -742,6 +300,9 @@
     </r>
   </si>
   <si>
+    <t>Contact Person Name</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -772,6 +333,9 @@
     </r>
   </si>
   <si>
+    <t>555-555-5555</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -802,10 +366,7 @@
     </r>
   </si>
   <si>
-    <t>4.  Use the local date/time at the facility for timestamp related questions.</t>
-  </si>
-  <si>
-    <t>5.  Depending on your security settings, you may have to click the button 'Enable Editing' near the formula bar when you open this spreadsheet.</t>
+    <t>me@email.com</t>
   </si>
   <si>
     <r>
@@ -836,6 +397,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Q8.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If no emission source was identified, please describe any events or activities that may have contributed to the plume observed on the date provided in Section 2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Q9:</t>
     </r>
     <r>
@@ -864,25 +444,6 @@
         <family val="2"/>
       </rPr>
       <t>Instrument used to locate the leak (e.g., Fisher Scientific TVA2020; RKI Multigas Analyzer Eagle 2; TDL).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Q8.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>If no emission source was identified, please describe any events or activities that may have contributed to the plume observed on the date provided in Section 2.</t>
     </r>
   </si>
   <si>
@@ -922,6 +483,9 @@
     </r>
   </si>
   <si>
+    <t>Please Select</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -955,6 +519,25 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> of the methane emissions:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Please provide a more detailed description of the location:</t>
     </r>
   </si>
   <si>
@@ -1016,25 +599,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q13.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Please provide a more detailed description of the location:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1101,6 +665,47 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Q19.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Below is a list of manure management practices. For each row, please put an 'X' in column D if your facility utilizes the management practice; otherwise, leave the cell blank.</t>
+    </r>
+  </si>
+  <si>
+    <t>Please enter X below or leave blank</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Below is a list of biogas-related equipment. For each row, please put an 'X' in column D if your facility utilizes the equipment; otherwise, leave the cell blank.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Q21.</t>
     </r>
     <r>
@@ -1110,47 +715,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">  What portion of manure is managed by anaerobic digestion?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">        Drop down selection cells are blue.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q24.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Please provide any additional information about manure and methane management at this facility, if applicable:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q25.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Please provide any additional notes, comments, or feedback on this form or the plume notification process, if applicable: </t>
     </r>
   </si>
   <si>
@@ -1194,234 +758,6 @@
     </r>
   </si>
   <si>
-    <t>Table 1.  Methane Description Options</t>
-  </si>
-  <si>
-    <t>Due to a temporary activity (i.e. would be resolved without corrective action when the activity is completed)</t>
-  </si>
-  <si>
-    <t>An intentional or allowable vent (i.e. the operator was aware of, and/or would not repair)</t>
-  </si>
-  <si>
-    <t>An unintentional leak (i.e. the operator was not aware of, and could be repaired if discovered)</t>
-  </si>
-  <si>
-    <t>Operator was aware of the leak prior to receiving the CARB plume notification and/or repairs were in progress</t>
-  </si>
-  <si>
-    <t>Digester cover</t>
-  </si>
-  <si>
-    <t>Other digester component</t>
-  </si>
-  <si>
-    <t>Biogas moving/handling equipment</t>
-  </si>
-  <si>
-    <t>Biogas conditioning/upgrading equipment</t>
-  </si>
-  <si>
-    <t>Interconnection/pipeline</t>
-  </si>
-  <si>
-    <t>Manure collection pit</t>
-  </si>
-  <si>
-    <t>Open lagoon</t>
-  </si>
-  <si>
-    <t>Effluent pond</t>
-  </si>
-  <si>
-    <t>Stacking slab/stockpile/other manure storage</t>
-  </si>
-  <si>
-    <t>Manure separator</t>
-  </si>
-  <si>
-    <t>Animal housing/barn/corral/lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other </t>
-  </si>
-  <si>
-    <t>Table 2.  Methane Location Options</t>
-  </si>
-  <si>
-    <t>Table 3.  Methane Cause Options</t>
-  </si>
-  <si>
-    <t>Damaged/broken component (e.g. tear in digester cover, loose flange/port/seal)</t>
-  </si>
-  <si>
-    <t>Manure management activity</t>
-  </si>
-  <si>
-    <t>Construction activity</t>
-  </si>
-  <si>
-    <t>Maintenance/repair/testing activity</t>
-  </si>
-  <si>
-    <t>Venting-intentional/routine</t>
-  </si>
-  <si>
-    <t>Venting-emergency/temporary</t>
-  </si>
-  <si>
-    <t>Table 4.  Able to be Repaired Options</t>
-  </si>
-  <si>
-    <t>Table 5.  All manure management practices and methods utilized at this facility</t>
-  </si>
-  <si>
-    <t>Anaerobic digester</t>
-  </si>
-  <si>
-    <t>Anaerobic Lagoon</t>
-  </si>
-  <si>
-    <t>Liquid/slurry</t>
-  </si>
-  <si>
-    <t>Processing pit</t>
-  </si>
-  <si>
-    <t>Liquid/flush manure collection</t>
-  </si>
-  <si>
-    <t>Solid/dry scrape manure collection</t>
-  </si>
-  <si>
-    <t>Vacuum manure collection</t>
-  </si>
-  <si>
-    <t>Pasture</t>
-  </si>
-  <si>
-    <t>Dry lot/corral</t>
-  </si>
-  <si>
-    <t>Compost bedded pack barn</t>
-  </si>
-  <si>
-    <t>Slatted floor pit storage</t>
-  </si>
-  <si>
-    <t>Settling basin</t>
-  </si>
-  <si>
-    <t>Weeping wall</t>
-  </si>
-  <si>
-    <t>Sloped screen separator</t>
-  </si>
-  <si>
-    <t>Stationary screen separator</t>
-  </si>
-  <si>
-    <t>Vibrating screen separator</t>
-  </si>
-  <si>
-    <t>Screw press separator</t>
-  </si>
-  <si>
-    <t>Roller drum separator</t>
-  </si>
-  <si>
-    <t>Centrifuge/decanter</t>
-  </si>
-  <si>
-    <t>Advanced solid-liquid separation by flocculation</t>
-  </si>
-  <si>
-    <t>Vermifiltration</t>
-  </si>
-  <si>
-    <t>Other mechanical solid-liquid separator</t>
-  </si>
-  <si>
-    <t>Sand lane</t>
-  </si>
-  <si>
-    <t>Solar drying</t>
-  </si>
-  <si>
-    <t>Composting in vessel</t>
-  </si>
-  <si>
-    <t>Composting aerated</t>
-  </si>
-  <si>
-    <t>Composting windrows</t>
-  </si>
-  <si>
-    <t>Fertigation</t>
-  </si>
-  <si>
-    <t>Land application (flood)</t>
-  </si>
-  <si>
-    <t>Land application (subsurface drip)</t>
-  </si>
-  <si>
-    <t>Daily spread</t>
-  </si>
-  <si>
-    <t>Solid storage</t>
-  </si>
-  <si>
-    <t>Table 6.  Biogas-related Equipment or Operations</t>
-  </si>
-  <si>
-    <t>Covered lagoon anaerobic digester</t>
-  </si>
-  <si>
-    <t>In-vessel anaerobic digester</t>
-  </si>
-  <si>
-    <t>Biogas moving and handling equipement (e.g. blower collection box pre-conditioning gas pipelines)</t>
-  </si>
-  <si>
-    <t>Biogas conditioning (e.g. hydrogen sulfide moisture particulate removal)</t>
-  </si>
-  <si>
-    <t>Biomethane upgrading</t>
-  </si>
-  <si>
-    <t>Onsite fuel use or dispensing</t>
-  </si>
-  <si>
-    <t>Electricity generation</t>
-  </si>
-  <si>
-    <t>Heating/process fuel equipment</t>
-  </si>
-  <si>
-    <t>Pipeline lateral</t>
-  </si>
-  <si>
-    <t>Interconnection point of receipt (including biomethane quality testing)</t>
-  </si>
-  <si>
-    <t>Q11.  Description of the Methane Emissions Drop Down Options</t>
-  </si>
-  <si>
-    <t>Q12.  Location of the Methane Emissions Drop Down Options</t>
-  </si>
-  <si>
-    <t>Q14.  Cause of the Methane Emissions Drop Down Options</t>
-  </si>
-  <si>
-    <t>Q16.  Was Repaired Drop Down Options</t>
-  </si>
-  <si>
-    <t>Q19.  Manure Management Practices and Methods Drop Down Options</t>
-  </si>
-  <si>
-    <t>Q20.  Biogas-related Equipment or Operations Drop Down Options</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1429,7 +765,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Q19.  </t>
+      <t>Q24.</t>
     </r>
     <r>
       <rPr>
@@ -1437,7 +773,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Below is a list of manure management practices. For each row, please put an 'X' in column D if your facility utilizes the management practice; otherwise, leave the cell blank.</t>
+      <t xml:space="preserve">  Please provide any additional information about manure and methane management at this facility, if applicable:</t>
     </r>
   </si>
   <si>
@@ -1448,7 +784,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Q20.</t>
+      <t>Q25.</t>
     </r>
     <r>
       <rPr>
@@ -1456,17 +792,843 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  Below is a list of biogas-related equipment. For each row, please put an 'X' in column D if your facility utilizes the equipment; otherwise, leave the cell blank.</t>
+      <t xml:space="preserve">  Please provide any additional notes, comments, or feedback on this form or the plume notification process, if applicable: </t>
     </r>
   </si>
   <si>
-    <t>Please enter X below or leave blank</t>
+    <t>CARB Issue Tracking and Feedback Log</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>The '_issue_tracking' tab is used to track comments and their resolutions and maintain a list of issues that still need to be addressed</t>
+  </si>
+  <si>
+    <t>Table 1. Feedback Status Codes</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Feedback received and tracked in this spreadsheet tab</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Feedback has been addressed in part, but has not been completely resolved</t>
+  </si>
+  <si>
+    <t>Consider Future</t>
+  </si>
+  <si>
+    <t>Consider for a future version</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Feedback has been resolved</t>
+  </si>
+  <si>
+    <t>Table 2.  Feedback &amp; Status</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Commenter</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Response-form_DairyDigesterOperators</t>
+  </si>
+  <si>
+    <t>ISD</t>
+  </si>
+  <si>
+    <t>File received from ISD regarding dairy digester feedback.  This file was copied locally and renamed to: dairy_digester_operator_feedback_v001.xlsx</t>
+  </si>
+  <si>
+    <t>Creating dairy_digester_operator_feedback_v002.xlsx</t>
+  </si>
+  <si>
+    <t>Tony Held</t>
+  </si>
+  <si>
+    <t>Created based on landfill_operator_feedback_v070.xlsx to transfer contents of v001 to a useable excel template
+Notification Timestamp not included because that is based on when the email is sent (which can't be known when creating the spreadsheet)</t>
   </si>
   <si>
     <t>Creating dairy_digester_operator_feedback_v003.xlsx</t>
   </si>
   <si>
     <t>Created checkbox-like option for mangement and equipment lists</t>
+  </si>
+  <si>
+    <t>CARB Drop Down Data Tab</t>
+  </si>
+  <si>
+    <t>The _carb_only tab is used in part to create interactive drop down menu options for the Feedback form</t>
+  </si>
+  <si>
+    <t>Please do not edit this tab unless you are a California Air Resources Board (CARB) software developer.</t>
+  </si>
+  <si>
+    <t>Do not remove blank lines or try to reformat this sheet as it will corrupt how the array/spill functions are designed</t>
+  </si>
+  <si>
+    <t>Tables associated with drop down options</t>
+  </si>
+  <si>
+    <t>Table 1.  Methane Description Options</t>
+  </si>
+  <si>
+    <t>An intentional or allowable vent (i.e. the operator was aware of, and/or would not repair)</t>
+  </si>
+  <si>
+    <t>An unintentional leak (i.e. the operator was not aware of, and could be repaired if discovered)</t>
+  </si>
+  <si>
+    <t>Due to a temporary activity (i.e. would be resolved without corrective action when the activity is completed)</t>
+  </si>
+  <si>
+    <t>Operator was aware of the leak prior to receiving the CARB plume notification and/or repairs were in progress</t>
+  </si>
+  <si>
+    <t>Table 2.  Methane Location Options</t>
+  </si>
+  <si>
+    <t>Animal housing/barn/corral/lot</t>
+  </si>
+  <si>
+    <t>Biogas conditioning/upgrading equipment</t>
+  </si>
+  <si>
+    <t>Biogas moving/handling equipment</t>
+  </si>
+  <si>
+    <t>Digester cover</t>
+  </si>
+  <si>
+    <t>Effluent pond</t>
+  </si>
+  <si>
+    <t>Interconnection/pipeline</t>
+  </si>
+  <si>
+    <t>Manure collection pit</t>
+  </si>
+  <si>
+    <t>Manure separator</t>
+  </si>
+  <si>
+    <t>Open lagoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Other digester component</t>
+  </si>
+  <si>
+    <t>Stacking slab/stockpile/other manure storage</t>
+  </si>
+  <si>
+    <t>Table 3.  Methane Cause Options</t>
+  </si>
+  <si>
+    <t>Construction activity</t>
+  </si>
+  <si>
+    <t>Damaged/broken component (e.g. tear in digester cover, loose flange/port/seal)</t>
+  </si>
+  <si>
+    <t>Maintenance/repair/testing activity</t>
+  </si>
+  <si>
+    <t>Manure management activity</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Venting-emergency/temporary</t>
+  </si>
+  <si>
+    <t>Venting-intentional/routine</t>
+  </si>
+  <si>
+    <t>Table 4.  Able to be Repaired Options</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Table 5.  All manure management practices and methods utilized at this facility</t>
+  </si>
+  <si>
+    <t>Advanced solid-liquid separation by flocculation</t>
+  </si>
+  <si>
+    <t>Anaerobic digester</t>
+  </si>
+  <si>
+    <t>Anaerobic Lagoon</t>
+  </si>
+  <si>
+    <t>Centrifuge/decanter</t>
+  </si>
+  <si>
+    <t>Compost bedded pack barn</t>
+  </si>
+  <si>
+    <t>Composting aerated</t>
+  </si>
+  <si>
+    <t>Composting in vessel</t>
+  </si>
+  <si>
+    <t>Composting windrows</t>
+  </si>
+  <si>
+    <t>Daily spread</t>
+  </si>
+  <si>
+    <t>Dry lot/corral</t>
+  </si>
+  <si>
+    <t>Fertigation</t>
+  </si>
+  <si>
+    <t>Land application (flood)</t>
+  </si>
+  <si>
+    <t>Land application (subsurface drip)</t>
+  </si>
+  <si>
+    <t>Liquid/flush manure collection</t>
+  </si>
+  <si>
+    <t>Liquid/slurry</t>
+  </si>
+  <si>
+    <t>Other mechanical solid-liquid separator</t>
+  </si>
+  <si>
+    <t>Pasture</t>
+  </si>
+  <si>
+    <t>Processing pit</t>
+  </si>
+  <si>
+    <t>Roller drum separator</t>
+  </si>
+  <si>
+    <t>Sand lane</t>
+  </si>
+  <si>
+    <t>Screw press separator</t>
+  </si>
+  <si>
+    <t>Settling basin</t>
+  </si>
+  <si>
+    <t>Slatted floor pit storage</t>
+  </si>
+  <si>
+    <t>Sloped screen separator</t>
+  </si>
+  <si>
+    <t>Solar drying</t>
+  </si>
+  <si>
+    <t>Solid storage</t>
+  </si>
+  <si>
+    <t>Solid/dry scrape manure collection</t>
+  </si>
+  <si>
+    <t>Stationary screen separator</t>
+  </si>
+  <si>
+    <t>Vacuum manure collection</t>
+  </si>
+  <si>
+    <t>Vermifiltration</t>
+  </si>
+  <si>
+    <t>Vibrating screen separator</t>
+  </si>
+  <si>
+    <t>Weeping wall</t>
+  </si>
+  <si>
+    <t>Table 6.  Biogas-related Equipment or Operations</t>
+  </si>
+  <si>
+    <t>Biogas conditioning (e.g. hydrogen sulfide moisture particulate removal)</t>
+  </si>
+  <si>
+    <t>Biogas moving and handling equipement (e.g. blower collection box pre-conditioning gas pipelines)</t>
+  </si>
+  <si>
+    <t>Biomethane upgrading</t>
+  </si>
+  <si>
+    <t>Covered lagoon anaerobic digester</t>
+  </si>
+  <si>
+    <t>Electricity generation</t>
+  </si>
+  <si>
+    <t>Heating/process fuel equipment</t>
+  </si>
+  <si>
+    <t>Interconnection point of receipt (including biomethane quality testing)</t>
+  </si>
+  <si>
+    <t>In-vessel anaerobic digester</t>
+  </si>
+  <si>
+    <t>Onsite fuel use or dispensing</t>
+  </si>
+  <si>
+    <t>Pipeline lateral</t>
+  </si>
+  <si>
+    <t>Q11.  Description of the Methane Emissions Drop Down Options</t>
+  </si>
+  <si>
+    <t>Options as a list</t>
+  </si>
+  <si>
+    <t>Q12.  Location of the Methane Emissions Drop Down Options</t>
+  </si>
+  <si>
+    <t>Q14.  Cause of the Methane Emissions Drop Down Options</t>
+  </si>
+  <si>
+    <t>Q16.  Was Repaired Drop Down Options</t>
+  </si>
+  <si>
+    <t>Q19.  Manure Management Practices and Methods Drop Down Options</t>
+  </si>
+  <si>
+    <t>Q20.  Biogas-related Equipment or Operations Drop Down Options</t>
+  </si>
+  <si>
+    <t>JSON Schema Tab</t>
+  </si>
+  <si>
+    <t>The _json_schema tab is used to specify formatting schemas should one wish to export spreadsheet data to a json format.</t>
+  </si>
+  <si>
+    <t>Please do not edit this tab unless you are a California Air Resources Board (CARB) software developer</t>
+  </si>
+  <si>
+    <t>Tabs will be imported starting with the row immediately beneath the shaded header.</t>
+  </si>
+  <si>
+    <t>Subsequent rows will also be imported until the first  blank tab name is encountered</t>
+  </si>
+  <si>
+    <t>Tab Name</t>
+  </si>
+  <si>
+    <t>JSON Formatting Schema</t>
+  </si>
+  <si>
+    <t>Feedback Form</t>
+  </si>
+  <si>
+    <t>dairy_digester_v01_00</t>
+  </si>
+  <si>
+    <t>The _json_metadata tab is used to store key/value pairs to be included in the export of this spreadsheet to json.</t>
+  </si>
+  <si>
+    <t>Key value pairs will be read in starting with the row immediately beneath the green header.</t>
+  </si>
+  <si>
+    <t>Key value pairs will be read on subsequent rows until the first blank key is encountered</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>dairy_digester</t>
+  </si>
+  <si>
+    <t>Red (alert) color</t>
+  </si>
+  <si>
+    <t>#FFCCCB</t>
+  </si>
+  <si>
+    <t>CARB Named Range Diagnostics</t>
+  </si>
+  <si>
+    <t>Run the subroutine list_named_ranges() to update the diagnostic information below</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Named Range</t>
+  </si>
+  <si>
+    <t>Is Drop Down</t>
+  </si>
+  <si>
+    <t>$D$43</t>
+  </si>
+  <si>
+    <t>jinja_additional_activities</t>
+  </si>
+  <si>
+    <t>$D$73</t>
+  </si>
+  <si>
+    <t>jinja_additional_notes</t>
+  </si>
+  <si>
+    <t>jinja_contact_email</t>
+  </si>
+  <si>
+    <t>$D$34</t>
+  </si>
+  <si>
+    <t>jinja_contact_name</t>
+  </si>
+  <si>
+    <t>$D$35</t>
+  </si>
+  <si>
+    <t>jinja_contact_phone</t>
+  </si>
+  <si>
+    <t>$D$53</t>
+  </si>
+  <si>
+    <t>jinja_emission_cause</t>
+  </si>
+  <si>
+    <t>jinja_emission_cause_notes</t>
+  </si>
+  <si>
+    <t>$D$42</t>
+  </si>
+  <si>
+    <t>$D$51</t>
+  </si>
+  <si>
+    <t>jinja_emission_location</t>
+  </si>
+  <si>
+    <t>$D$52</t>
+  </si>
+  <si>
+    <t>jinja_emission_location_notes</t>
+  </si>
+  <si>
+    <t>jinja_emission_type_fk</t>
+  </si>
+  <si>
+    <t>$D$32</t>
+  </si>
+  <si>
+    <t>$D$33</t>
+  </si>
+  <si>
+    <t>$D$23</t>
+  </si>
+  <si>
+    <t>jinja_id_incidence</t>
+  </si>
+  <si>
+    <t>jinja_id_message</t>
+  </si>
+  <si>
+    <t>$D$24</t>
+  </si>
+  <si>
+    <t>jinja_id_plume</t>
+  </si>
+  <si>
+    <t>$D$64</t>
+  </si>
+  <si>
+    <t>$D$65</t>
+  </si>
+  <si>
+    <t>$D$47</t>
+  </si>
+  <si>
+    <t>jinja_initial_leak_concentration</t>
+  </si>
+  <si>
+    <t>$D$40</t>
+  </si>
+  <si>
+    <t>jinja_inspection_timestamp</t>
+  </si>
+  <si>
+    <t>$D$41</t>
+  </si>
+  <si>
+    <t>jinja_instrument</t>
+  </si>
+  <si>
+    <t>$D$72</t>
+  </si>
+  <si>
+    <t>$D$71</t>
+  </si>
+  <si>
+    <t>$D$26</t>
+  </si>
+  <si>
+    <t>jinja_lat_carb</t>
+  </si>
+  <si>
+    <t>jinja_long_carb</t>
+  </si>
+  <si>
+    <t>$D$60</t>
+  </si>
+  <si>
+    <t>jinja_mitigation_actions</t>
+  </si>
+  <si>
+    <t>$D$61</t>
+  </si>
+  <si>
+    <t>jinja_mitigation_timestamp</t>
+  </si>
+  <si>
+    <t>$D$25</t>
+  </si>
+  <si>
+    <t>jinja_observation_timestamp</t>
+  </si>
+  <si>
+    <t>$D$66</t>
+  </si>
+  <si>
+    <t>$D$67</t>
+  </si>
+  <si>
+    <t>$D$63</t>
+  </si>
+  <si>
+    <t>$D$62</t>
+  </si>
+  <si>
+    <t>jinja_able_to_repair</t>
+  </si>
+  <si>
+    <t>$D$104</t>
+  </si>
+  <si>
+    <t>jinja_additional_manure_management</t>
+  </si>
+  <si>
+    <t>$D$108</t>
+  </si>
+  <si>
+    <t>$D$101</t>
+  </si>
+  <si>
+    <t>jinja_anaerobic_digestion_portion</t>
+  </si>
+  <si>
+    <t>$D$91</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_biogas_conditioning</t>
+  </si>
+  <si>
+    <t>$D$92</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_biogas_moving</t>
+  </si>
+  <si>
+    <t>$D$93</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_biomethane_upgrading</t>
+  </si>
+  <si>
+    <t>$D$94</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_covered_lagoon</t>
+  </si>
+  <si>
+    <t>$D$95</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_electricity</t>
+  </si>
+  <si>
+    <t>$D$96</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_heating</t>
+  </si>
+  <si>
+    <t>$D$98</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_in_vessel</t>
+  </si>
+  <si>
+    <t>$D$97</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_interconnection</t>
+  </si>
+  <si>
+    <t>$D$99</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_onsite_fuel</t>
+  </si>
+  <si>
+    <t>$D$100</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_bio_pipeline_lateral</t>
+  </si>
+  <si>
+    <t>$D$30</t>
+  </si>
+  <si>
+    <t>jinja_digester_facility_name</t>
+  </si>
+  <si>
+    <t>$D$46</t>
+  </si>
+  <si>
+    <t>$D$44</t>
+  </si>
+  <si>
+    <t>$D$45</t>
+  </si>
+  <si>
+    <t>jinja_id_arb_ciwqs</t>
+  </si>
+  <si>
+    <t>$D$21</t>
+  </si>
+  <si>
+    <t>$D$22</t>
+  </si>
+  <si>
+    <t>$D$39</t>
+  </si>
+  <si>
+    <t>$D$31</t>
+  </si>
+  <si>
+    <t>jinja_livestock_facility_name</t>
+  </si>
+  <si>
+    <t>$D$58</t>
+  </si>
+  <si>
+    <t>jinja_manure_advanced_solid_liquid</t>
+  </si>
+  <si>
+    <t>$D$59</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_anaerobic_digester</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_anaerobic_lagoon</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_centrifuge_decanter</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_compost_bedded_pack</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_composting_aerated</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_composting_in_vessel</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_composting_windrows</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_daily_spread</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_dry_lot_corral</t>
+  </si>
+  <si>
+    <t>$D$68</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_fertigation</t>
+  </si>
+  <si>
+    <t>$D$69</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_land_application_flood</t>
+  </si>
+  <si>
+    <t>$D$70</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_land_application_subsurface</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_liquid_flush</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_liquid_slurry</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_other_mechanical</t>
+  </si>
+  <si>
+    <t>$D$74</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_pasture</t>
+  </si>
+  <si>
+    <t>$D$75</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_processing_pit</t>
+  </si>
+  <si>
+    <t>$D$76</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_roller_drum</t>
+  </si>
+  <si>
+    <t>$D$77</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_sand_lane</t>
+  </si>
+  <si>
+    <t>$D$78</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_screw_press</t>
+  </si>
+  <si>
+    <t>$D$79</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_settling_basin</t>
+  </si>
+  <si>
+    <t>$D$80</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_slatted_floor</t>
+  </si>
+  <si>
+    <t>$D$81</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_sloped_screen</t>
+  </si>
+  <si>
+    <t>$D$82</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_solar_drying</t>
+  </si>
+  <si>
+    <t>$D$84</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_solid_dry_scrape</t>
+  </si>
+  <si>
+    <t>$D$83</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_solid_storage</t>
+  </si>
+  <si>
+    <t>$D$85</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_stationary_screen</t>
+  </si>
+  <si>
+    <t>$D$86</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_vacuum</t>
+  </si>
+  <si>
+    <t>$D$87</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_vermifiltration</t>
+  </si>
+  <si>
+    <t>$D$88</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_vibrating_screen</t>
+  </si>
+  <si>
+    <t>$D$89</t>
+  </si>
+  <si>
+    <t>Feedback Form'!jinja_manure_weeping_wall</t>
+  </si>
+  <si>
+    <t>$D$102</t>
+  </si>
+  <si>
+    <t>jinja_transport_method</t>
+  </si>
+  <si>
+    <t>$D$103</t>
+  </si>
+  <si>
+    <t>jinji_transport_recipient</t>
   </si>
 </sst>
 </file>
@@ -1477,49 +1639,13 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1547,14 +1673,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1797,11 +1915,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1812,13 +1930,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1826,8 +1944,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1836,127 +1954,75 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1965,54 +2031,78 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -3265,17 +3355,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3299,31 +3389,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
-      <c r="B3" s="69" t="s">
-        <v>159</v>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="2:21" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="2:21" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -3347,521 +3437,521 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-    </row>
-    <row r="7" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+    </row>
+    <row r="7" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B8" s="60" t="s">
-        <v>160</v>
+    <row r="8" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="37"/>
-    </row>
-    <row r="9" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B9" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="37"/>
-    </row>
-    <row r="10" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B10" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="61"/>
-    </row>
-    <row r="11" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B11" s="60" t="s">
-        <v>161</v>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B12" s="60" t="s">
-        <v>162</v>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="37"/>
-    </row>
-    <row r="13" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B13" s="60" t="s">
-        <v>163</v>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>8</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B14" s="60" t="s">
-        <v>164</v>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B15" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-    </row>
-    <row r="16" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B16" s="60" t="s">
-        <v>177</v>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+    </row>
+    <row r="16" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="37"/>
-    </row>
-    <row r="17" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B17" s="49" t="s">
-        <v>127</v>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U18" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-    </row>
-    <row r="20" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+    </row>
+    <row r="20" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U20" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B21" s="53" t="s">
-        <v>138</v>
+    <row r="21" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="41">
+      <c r="D21" s="59">
         <v>153</v>
       </c>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B22" s="53" t="s">
-        <v>139</v>
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="54" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="41">
+      <c r="D22" s="59">
         <v>447</v>
       </c>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B23" s="60" t="s">
-        <v>165</v>
+    <row r="23" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="42">
+      <c r="D23" s="60">
         <v>45468</v>
       </c>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="41">
+      <c r="D24" s="59">
         <v>35.321100000000001</v>
       </c>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B25" s="53" t="s">
-        <v>140</v>
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="54" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="41">
+      <c r="D25" s="59">
         <v>-119.5808</v>
       </c>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B26" s="55" t="s">
-        <v>144</v>
+      <c r="E25" s="54"/>
+    </row>
+    <row r="26" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-    </row>
-    <row r="27" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D26" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U27" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-    </row>
-    <row r="29" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+    </row>
+    <row r="29" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U29" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B30" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B31" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="73" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B32" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" s="11" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B33" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="2:21" s="11" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B34" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="2:21" s="11" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B35" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="51"/>
+    </row>
+    <row r="34" spans="2:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="51"/>
+    </row>
+    <row r="35" spans="2:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="51"/>
+    </row>
+    <row r="36" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U36" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-    </row>
-    <row r="38" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+    </row>
+    <row r="38" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U38" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:21" s="11" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B39" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="65">
+    <row r="39" spans="2:21" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="63">
         <v>45152.53125</v>
       </c>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" spans="2:21" s="11" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:21" s="11" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B40" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="66"/>
-    </row>
-    <row r="41" spans="2:21" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="44"/>
+        <v>34</v>
+      </c>
+      <c r="D41" s="62"/>
       <c r="U41" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:21" s="11" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:21" s="11" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="66"/>
-    </row>
-    <row r="43" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="C43" s="51"/>
       <c r="D43" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="C44" s="51"/>
       <c r="D44" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" s="11" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" s="11" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="65"/>
-    </row>
-    <row r="46" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" s="11" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47" s="65"/>
-    </row>
-    <row r="48" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+        <v>39</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="63"/>
+    </row>
+    <row r="46" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" s="11" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="63"/>
+    </row>
+    <row r="48" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U48" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-    </row>
-    <row r="50" spans="2:21" s="20" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="37"/>
+    <row r="49" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+    </row>
+    <row r="50" spans="2:21" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="50"/>
       <c r="U50" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" s="11" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="65">
+    <row r="51" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="11" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="63">
         <v>45275.53125</v>
       </c>
     </row>
-    <row r="53" spans="2:21" s="11" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B53" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="D53" s="50"/>
-    </row>
-    <row r="54" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-    </row>
-    <row r="55" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-    </row>
-    <row r="56" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:21" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+    </row>
+    <row r="55" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+    </row>
+    <row r="56" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U56" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21" s="11" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:21" s="11" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B57" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="74" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B58" s="70" t="str">
+        <v>45</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B51) &lt;= 60,
   "  •  " &amp; _carb_only!B51,
@@ -3873,11 +3963,11 @@
 )</f>
         <v xml:space="preserve">  •  Advanced solid-liquid separation by flocculation</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B59" s="70" t="str">
+      <c r="C58" s="65"/>
+      <c r="D58" s="48"/>
+    </row>
+    <row r="59" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B52) &lt;= 60,
   "  •  " &amp; _carb_only!B52,
@@ -3889,11 +3979,11 @@
 )</f>
         <v xml:space="preserve">  •  Anaerobic digester</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B60" s="70" t="str">
+      <c r="C59" s="65"/>
+      <c r="D59" s="48"/>
+    </row>
+    <row r="60" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B53) &lt;= 60,
   "  •  " &amp; _carb_only!B53,
@@ -3905,11 +3995,11 @@
 )</f>
         <v xml:space="preserve">  •  Anaerobic Lagoon</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-    </row>
-    <row r="61" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B61" s="70" t="str">
+      <c r="C60" s="65"/>
+      <c r="D60" s="48"/>
+    </row>
+    <row r="61" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B54) &lt;= 60,
   "  •  " &amp; _carb_only!B54,
@@ -3921,11 +4011,11 @@
 )</f>
         <v xml:space="preserve">  •  Centrifuge/decanter</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72"/>
-    </row>
-    <row r="62" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B62" s="70" t="str">
+      <c r="C61" s="65"/>
+      <c r="D61" s="48"/>
+    </row>
+    <row r="62" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B55) &lt;= 60,
   "  •  " &amp; _carb_only!B55,
@@ -3937,11 +4027,11 @@
 )</f>
         <v xml:space="preserve">  •  Compost bedded pack barn</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-    </row>
-    <row r="63" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B63" s="70" t="str">
+      <c r="C62" s="65"/>
+      <c r="D62" s="48"/>
+    </row>
+    <row r="63" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B56) &lt;= 60,
   "  •  " &amp; _carb_only!B56,
@@ -3953,11 +4043,11 @@
 )</f>
         <v xml:space="preserve">  •  Composting aerated</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
-    </row>
-    <row r="64" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B64" s="70" t="str">
+      <c r="C63" s="65"/>
+      <c r="D63" s="48"/>
+    </row>
+    <row r="64" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B57) &lt;= 60,
   "  •  " &amp; _carb_only!B57,
@@ -3969,11 +4059,11 @@
 )</f>
         <v xml:space="preserve">  •  Composting in vessel</v>
       </c>
-      <c r="C64" s="71"/>
-      <c r="D64" s="72"/>
-    </row>
-    <row r="65" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B65" s="70" t="str">
+      <c r="C64" s="65"/>
+      <c r="D64" s="48"/>
+    </row>
+    <row r="65" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B58) &lt;= 60,
   "  •  " &amp; _carb_only!B58,
@@ -3985,11 +4075,11 @@
 )</f>
         <v xml:space="preserve">  •  Composting windrows</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
-    </row>
-    <row r="66" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B66" s="70" t="str">
+      <c r="C65" s="65"/>
+      <c r="D65" s="48"/>
+    </row>
+    <row r="66" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B59) &lt;= 60,
   "  •  " &amp; _carb_only!B59,
@@ -4001,11 +4091,11 @@
 )</f>
         <v xml:space="preserve">  •  Daily spread</v>
       </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
-    </row>
-    <row r="67" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B67" s="70" t="str">
+      <c r="C66" s="65"/>
+      <c r="D66" s="48"/>
+    </row>
+    <row r="67" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B60) &lt;= 60,
   "  •  " &amp; _carb_only!B60,
@@ -4017,11 +4107,11 @@
 )</f>
         <v xml:space="preserve">  •  Dry lot/corral</v>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="72"/>
-    </row>
-    <row r="68" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B68" s="70" t="str">
+      <c r="C67" s="65"/>
+      <c r="D67" s="48"/>
+    </row>
+    <row r="68" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B61) &lt;= 60,
   "  •  " &amp; _carb_only!B61,
@@ -4033,11 +4123,11 @@
 )</f>
         <v xml:space="preserve">  •  Fertigation</v>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="72"/>
-    </row>
-    <row r="69" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B69" s="70" t="str">
+      <c r="C68" s="65"/>
+      <c r="D68" s="48"/>
+    </row>
+    <row r="69" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B62) &lt;= 60,
   "  •  " &amp; _carb_only!B62,
@@ -4049,11 +4139,11 @@
 )</f>
         <v xml:space="preserve">  •  Land application (flood)</v>
       </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="72"/>
-    </row>
-    <row r="70" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B70" s="70" t="str">
+      <c r="C69" s="65"/>
+      <c r="D69" s="48"/>
+    </row>
+    <row r="70" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B63) &lt;= 60,
   "  •  " &amp; _carb_only!B63,
@@ -4065,11 +4155,11 @@
 )</f>
         <v xml:space="preserve">  •  Land application (subsurface drip)</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
-    </row>
-    <row r="71" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B71" s="70" t="str">
+      <c r="C70" s="65"/>
+      <c r="D70" s="48"/>
+    </row>
+    <row r="71" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B64) &lt;= 60,
   "  •  " &amp; _carb_only!B64,
@@ -4081,11 +4171,11 @@
 )</f>
         <v xml:space="preserve">  •  Liquid/flush manure collection</v>
       </c>
-      <c r="C71" s="71"/>
-      <c r="D71" s="72"/>
-    </row>
-    <row r="72" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B72" s="70" t="str">
+      <c r="C71" s="65"/>
+      <c r="D71" s="48"/>
+    </row>
+    <row r="72" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B65) &lt;= 60,
   "  •  " &amp; _carb_only!B65,
@@ -4097,11 +4187,11 @@
 )</f>
         <v xml:space="preserve">  •  Liquid/slurry</v>
       </c>
-      <c r="C72" s="71"/>
-      <c r="D72" s="72"/>
-    </row>
-    <row r="73" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B73" s="70" t="str">
+      <c r="C72" s="65"/>
+      <c r="D72" s="48"/>
+    </row>
+    <row r="73" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B66) &lt;= 60,
   "  •  " &amp; _carb_only!B66,
@@ -4113,11 +4203,11 @@
 )</f>
         <v xml:space="preserve">  •  Other mechanical solid-liquid separator</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="72"/>
-    </row>
-    <row r="74" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B74" s="70" t="str">
+      <c r="C73" s="65"/>
+      <c r="D73" s="48"/>
+    </row>
+    <row r="74" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B67) &lt;= 60,
   "  •  " &amp; _carb_only!B67,
@@ -4129,11 +4219,11 @@
 )</f>
         <v xml:space="preserve">  •  Pasture</v>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="72"/>
-    </row>
-    <row r="75" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B75" s="70" t="str">
+      <c r="C74" s="65"/>
+      <c r="D74" s="48"/>
+    </row>
+    <row r="75" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B68) &lt;= 60,
   "  •  " &amp; _carb_only!B68,
@@ -4145,11 +4235,11 @@
 )</f>
         <v xml:space="preserve">  •  Processing pit</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="72"/>
-    </row>
-    <row r="76" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B76" s="70" t="str">
+      <c r="C75" s="65"/>
+      <c r="D75" s="48"/>
+    </row>
+    <row r="76" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B69) &lt;= 60,
   "  •  " &amp; _carb_only!B69,
@@ -4161,11 +4251,11 @@
 )</f>
         <v xml:space="preserve">  •  Roller drum separator</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-    </row>
-    <row r="77" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B77" s="70" t="str">
+      <c r="C76" s="65"/>
+      <c r="D76" s="48"/>
+    </row>
+    <row r="77" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B70) &lt;= 60,
   "  •  " &amp; _carb_only!B70,
@@ -4177,11 +4267,11 @@
 )</f>
         <v xml:space="preserve">  •  Sand lane</v>
       </c>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-    </row>
-    <row r="78" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B78" s="70" t="str">
+      <c r="C77" s="65"/>
+      <c r="D77" s="48"/>
+    </row>
+    <row r="78" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B71) &lt;= 60,
   "  •  " &amp; _carb_only!B71,
@@ -4193,11 +4283,11 @@
 )</f>
         <v xml:space="preserve">  •  Screw press separator</v>
       </c>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-    </row>
-    <row r="79" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B79" s="70" t="str">
+      <c r="C78" s="65"/>
+      <c r="D78" s="48"/>
+    </row>
+    <row r="79" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B72) &lt;= 60,
   "  •  " &amp; _carb_only!B72,
@@ -4209,11 +4299,11 @@
 )</f>
         <v xml:space="preserve">  •  Settling basin</v>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="72"/>
-    </row>
-    <row r="80" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B80" s="70" t="str">
+      <c r="C79" s="65"/>
+      <c r="D79" s="48"/>
+    </row>
+    <row r="80" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B73) &lt;= 60,
   "  •  " &amp; _carb_only!B73,
@@ -4225,11 +4315,11 @@
 )</f>
         <v xml:space="preserve">  •  Slatted floor pit storage</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-    </row>
-    <row r="81" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B81" s="70" t="str">
+      <c r="C80" s="65"/>
+      <c r="D80" s="48"/>
+    </row>
+    <row r="81" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B74) &lt;= 60,
   "  •  " &amp; _carb_only!B74,
@@ -4241,11 +4331,11 @@
 )</f>
         <v xml:space="preserve">  •  Sloped screen separator</v>
       </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="72"/>
-    </row>
-    <row r="82" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B82" s="70" t="str">
+      <c r="C81" s="65"/>
+      <c r="D81" s="48"/>
+    </row>
+    <row r="82" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B75) &lt;= 60,
   "  •  " &amp; _carb_only!B75,
@@ -4257,11 +4347,11 @@
 )</f>
         <v xml:space="preserve">  •  Solar drying</v>
       </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="72"/>
-    </row>
-    <row r="83" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B83" s="70" t="str">
+      <c r="C82" s="65"/>
+      <c r="D82" s="48"/>
+    </row>
+    <row r="83" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B76) &lt;= 60,
   "  •  " &amp; _carb_only!B76,
@@ -4273,11 +4363,11 @@
 )</f>
         <v xml:space="preserve">  •  Solid storage</v>
       </c>
-      <c r="C83" s="71"/>
-      <c r="D83" s="72"/>
-    </row>
-    <row r="84" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B84" s="70" t="str">
+      <c r="C83" s="65"/>
+      <c r="D83" s="48"/>
+    </row>
+    <row r="84" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B77) &lt;= 60,
   "  •  " &amp; _carb_only!B77,
@@ -4289,11 +4379,11 @@
 )</f>
         <v xml:space="preserve">  •  Solid/dry scrape manure collection</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-    </row>
-    <row r="85" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B85" s="70" t="str">
+      <c r="C84" s="65"/>
+      <c r="D84" s="48"/>
+    </row>
+    <row r="85" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B78) &lt;= 60,
   "  •  " &amp; _carb_only!B78,
@@ -4305,11 +4395,11 @@
 )</f>
         <v xml:space="preserve">  •  Stationary screen separator</v>
       </c>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-    </row>
-    <row r="86" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B86" s="70" t="str">
+      <c r="C85" s="65"/>
+      <c r="D85" s="48"/>
+    </row>
+    <row r="86" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B79) &lt;= 60,
   "  •  " &amp; _carb_only!B79,
@@ -4321,11 +4411,11 @@
 )</f>
         <v xml:space="preserve">  •  Vacuum manure collection</v>
       </c>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-    </row>
-    <row r="87" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B87" s="70" t="str">
+      <c r="C86" s="65"/>
+      <c r="D86" s="48"/>
+    </row>
+    <row r="87" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B80) &lt;= 60,
   "  •  " &amp; _carb_only!B80,
@@ -4337,11 +4427,11 @@
 )</f>
         <v xml:space="preserve">  •  Vermifiltration</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="72"/>
-    </row>
-    <row r="88" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B88" s="70" t="str">
+      <c r="C87" s="65"/>
+      <c r="D87" s="48"/>
+    </row>
+    <row r="88" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B81) &lt;= 60,
   "  •  " &amp; _carb_only!B81,
@@ -4353,11 +4443,11 @@
 )</f>
         <v xml:space="preserve">  •  Vibrating screen separator</v>
       </c>
-      <c r="C88" s="71"/>
-      <c r="D88" s="72"/>
-    </row>
-    <row r="89" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B89" s="70" t="str">
+      <c r="C88" s="65"/>
+      <c r="D88" s="48"/>
+    </row>
+    <row r="89" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B82) &lt;= 60,
   "  •  " &amp; _carb_only!B82,
@@ -4369,20 +4459,20 @@
 )</f>
         <v xml:space="preserve">  •  Weeping wall</v>
       </c>
-      <c r="C89" s="71"/>
-      <c r="D89" s="72"/>
-    </row>
-    <row r="90" spans="2:4" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C89" s="65"/>
+      <c r="D89" s="48"/>
+    </row>
+    <row r="90" spans="2:4" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="74" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="B91" s="70" t="str">
+        <v>47</v>
+      </c>
+      <c r="C90" s="51"/>
+      <c r="D90" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B86) &lt;= 60,
   "  •  " &amp; _carb_only!B86,
@@ -4395,11 +4485,11 @@
         <v xml:space="preserve">  •  Biogas conditioning (e.g. hydrogen sulfide moisture
      particulate removal)</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-    </row>
-    <row r="92" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="B92" s="70" t="str">
+      <c r="C91" s="65"/>
+      <c r="D91" s="48"/>
+    </row>
+    <row r="92" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B87) &lt;= 60,
   "  •  " &amp; _carb_only!B87,
@@ -4412,11 +4502,11 @@
         <v xml:space="preserve">  •  Biogas moving and handling equipement (e.g. blower
      collection box pre-conditioning gas pipelines)</v>
       </c>
-      <c r="C92" s="71"/>
-      <c r="D92" s="72"/>
-    </row>
-    <row r="93" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B93" s="70" t="str">
+      <c r="C92" s="65"/>
+      <c r="D92" s="48"/>
+    </row>
+    <row r="93" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B88) &lt;= 60,
   "  •  " &amp; _carb_only!B88,
@@ -4428,11 +4518,11 @@
 )</f>
         <v xml:space="preserve">  •  Biomethane upgrading</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="72"/>
-    </row>
-    <row r="94" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B94" s="70" t="str">
+      <c r="C93" s="65"/>
+      <c r="D93" s="48"/>
+    </row>
+    <row r="94" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B89) &lt;= 60,
   "  •  " &amp; _carb_only!B89,
@@ -4444,11 +4534,11 @@
 )</f>
         <v xml:space="preserve">  •  Covered lagoon anaerobic digester</v>
       </c>
-      <c r="C94" s="71"/>
-      <c r="D94" s="72"/>
-    </row>
-    <row r="95" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B95" s="70" t="str">
+      <c r="C94" s="65"/>
+      <c r="D94" s="48"/>
+    </row>
+    <row r="95" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B90) &lt;= 60,
   "  •  " &amp; _carb_only!B90,
@@ -4460,11 +4550,11 @@
 )</f>
         <v xml:space="preserve">  •  Electricity generation</v>
       </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="72"/>
-    </row>
-    <row r="96" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B96" s="70" t="str">
+      <c r="C95" s="65"/>
+      <c r="D95" s="48"/>
+    </row>
+    <row r="96" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B91) &lt;= 60,
   "  •  " &amp; _carb_only!B91,
@@ -4476,11 +4566,11 @@
 )</f>
         <v xml:space="preserve">  •  Heating/process fuel equipment</v>
       </c>
-      <c r="C96" s="71"/>
-      <c r="D96" s="72"/>
-    </row>
-    <row r="97" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="B97" s="70" t="str">
+      <c r="C96" s="65"/>
+      <c r="D96" s="48"/>
+    </row>
+    <row r="97" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B92) &lt;= 60,
   "  •  " &amp; _carb_only!B92,
@@ -4493,11 +4583,11 @@
         <v xml:space="preserve">  •  Interconnection point of receipt (including biomethane
      quality testing)</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-    </row>
-    <row r="98" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B98" s="70" t="str">
+      <c r="C97" s="65"/>
+      <c r="D97" s="48"/>
+    </row>
+    <row r="98" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B93) &lt;= 60,
   "  •  " &amp; _carb_only!B93,
@@ -4509,11 +4599,11 @@
 )</f>
         <v xml:space="preserve">  •  In-vessel anaerobic digester</v>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72"/>
-    </row>
-    <row r="99" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B99" s="70" t="str">
+      <c r="C98" s="65"/>
+      <c r="D98" s="48"/>
+    </row>
+    <row r="99" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B94) &lt;= 60,
   "  •  " &amp; _carb_only!B94,
@@ -4525,11 +4615,11 @@
 )</f>
         <v xml:space="preserve">  •  Onsite fuel use or dispensing</v>
       </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-    </row>
-    <row r="100" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B100" s="70" t="str">
+      <c r="C99" s="65"/>
+      <c r="D99" s="48"/>
+    </row>
+    <row r="100" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B95) &lt;= 60,
   "  •  " &amp; _carb_only!B95,
@@ -4541,45 +4631,45 @@
 )</f>
         <v xml:space="preserve">  •  Pipeline lateral</v>
       </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="72"/>
-    </row>
-    <row r="101" spans="2:4" s="11" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="C100" s="65"/>
+      <c r="D100" s="48"/>
+    </row>
+    <row r="101" spans="2:4" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B101" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D101" s="44"/>
-    </row>
-    <row r="102" spans="2:4" s="11" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+        <v>48</v>
+      </c>
+      <c r="D101" s="62"/>
+    </row>
+    <row r="102" spans="2:4" s="11" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B102" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="44"/>
-    </row>
-    <row r="103" spans="2:4" s="11" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+        <v>49</v>
+      </c>
+      <c r="D102" s="62"/>
+    </row>
+    <row r="103" spans="2:4" s="11" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B103" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D103" s="44"/>
-    </row>
-    <row r="104" spans="2:4" s="11" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+        <v>50</v>
+      </c>
+      <c r="D103" s="62"/>
+    </row>
+    <row r="104" spans="2:4" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B104" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D104" s="44"/>
-    </row>
-    <row r="105" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B105" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="D104" s="62"/>
+    </row>
+    <row r="105" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="51"/>
       <c r="D105" s="29"/>
     </row>
-    <row r="106" spans="2:4" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="107" spans="2:4" s="30" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="108" spans="2:4" s="11" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:4" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="2:4" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:4" s="11" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B108" s="28" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="C108" s="31"/>
-      <c r="D108" s="66"/>
+      <c r="D108" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4625,26 +4715,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4658,85 +4748,85 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D10" s="15"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:18" s="11" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D11" s="15"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:18" s="11" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D12" s="15"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D13" s="15"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
@@ -4751,7 +4841,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -4765,24 +4855,24 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4796,67 +4886,67 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" s="11" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>154</v>
+      <c r="C19" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="D19" s="15">
         <v>45818</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" s="11" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15">
         <v>45818</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" s="11" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>3</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="D21" s="15">
         <v>45818</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>4</v>
       </c>
@@ -4865,7 +4955,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>5</v>
       </c>
@@ -4874,7 +4964,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>6</v>
       </c>
@@ -4883,7 +4973,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>7</v>
       </c>
@@ -4892,7 +4982,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>8</v>
       </c>
@@ -4901,7 +4991,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>9</v>
       </c>
@@ -4910,7 +5000,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>10</v>
       </c>
@@ -4919,7 +5009,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>11</v>
       </c>
@@ -4928,7 +5018,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>12</v>
       </c>
@@ -4937,7 +5027,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>13</v>
       </c>
@@ -4946,7 +5036,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>14</v>
       </c>
@@ -4955,7 +5045,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>15</v>
       </c>
@@ -4964,7 +5054,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>16</v>
       </c>
@@ -4973,7 +5063,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>17</v>
       </c>
@@ -4982,7 +5072,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>18</v>
       </c>
@@ -4991,7 +5081,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>19</v>
       </c>
@@ -5000,7 +5090,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>20</v>
       </c>
@@ -5009,7 +5099,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>21</v>
       </c>
@@ -5018,7 +5108,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>22</v>
       </c>
@@ -5027,7 +5117,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>23</v>
       </c>
@@ -5036,7 +5126,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>24</v>
       </c>
@@ -5045,7 +5135,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>25</v>
       </c>
@@ -5054,7 +5144,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>26</v>
       </c>
@@ -5063,7 +5153,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>27</v>
       </c>
@@ -5072,7 +5162,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>28</v>
       </c>
@@ -5081,7 +5171,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>29</v>
       </c>
@@ -5090,7 +5180,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>30</v>
       </c>
@@ -5099,7 +5189,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <v>31</v>
       </c>
@@ -5108,7 +5198,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <v>32</v>
       </c>
@@ -5117,7 +5207,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <v>33</v>
       </c>
@@ -5126,7 +5216,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <v>34</v>
       </c>
@@ -5135,7 +5225,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <v>35</v>
       </c>
@@ -5144,7 +5234,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <v>36</v>
       </c>
@@ -5153,7 +5243,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <v>37</v>
       </c>
@@ -5162,7 +5252,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>38</v>
       </c>
@@ -5171,7 +5261,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>39</v>
       </c>
@@ -5179,9 +5269,9 @@
       <c r="D57" s="15"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
-      <c r="L57" s="57"/>
-    </row>
-    <row r="58" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="L57" s="41"/>
+    </row>
+    <row r="58" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>40</v>
       </c>
@@ -5190,7 +5280,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <v>41</v>
       </c>
@@ -5199,7 +5289,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <v>42</v>
       </c>
@@ -5208,7 +5298,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>43</v>
       </c>
@@ -5217,7 +5307,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <v>44</v>
       </c>
@@ -5226,7 +5316,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <v>45</v>
       </c>
@@ -5235,7 +5325,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <v>46</v>
       </c>
@@ -5244,7 +5334,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <v>47</v>
       </c>
@@ -5253,7 +5343,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <v>48</v>
       </c>
@@ -5262,7 +5352,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <v>49</v>
       </c>
@@ -5271,7 +5361,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <v>50</v>
       </c>
@@ -5280,7 +5370,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <v>51</v>
       </c>
@@ -5289,7 +5379,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <v>52</v>
       </c>
@@ -5298,7 +5388,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <v>53</v>
       </c>
@@ -5307,7 +5397,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <v>54</v>
       </c>
@@ -5316,7 +5406,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <v>55</v>
       </c>
@@ -5325,7 +5415,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <v>56</v>
       </c>
@@ -5334,7 +5424,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <v>57</v>
       </c>
@@ -5343,7 +5433,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <v>58</v>
       </c>
@@ -5352,7 +5442,7 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <v>59</v>
       </c>
@@ -5361,7 +5451,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <v>60</v>
       </c>
@@ -5370,7 +5460,7 @@
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>61</v>
       </c>
@@ -5379,7 +5469,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <v>62</v>
       </c>
@@ -5388,7 +5478,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <v>63</v>
       </c>
@@ -5397,7 +5487,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <v>64</v>
       </c>
@@ -5406,7 +5496,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <v>65</v>
       </c>
@@ -5415,17 +5505,17 @@
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <v>66</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="11"/>
       <c r="F84" s="14"/>
-      <c r="G84" s="58"/>
-    </row>
-    <row r="85" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="G84" s="42"/>
+    </row>
+    <row r="85" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <v>67</v>
       </c>
@@ -5434,16 +5524,16 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <v>68</v>
       </c>
       <c r="C86" s="14"/>
-      <c r="D86" s="59"/>
+      <c r="D86" s="43"/>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <v>69</v>
       </c>
@@ -5452,25 +5542,25 @@
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <v>70</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="15"/>
       <c r="F88" s="14"/>
-      <c r="G88" s="46"/>
-    </row>
-    <row r="89" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="G88" s="36"/>
+    </row>
+    <row r="89" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <v>71</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="15"/>
       <c r="F89" s="14"/>
-      <c r="G89" s="46"/>
-    </row>
-    <row r="90" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="G89" s="36"/>
+    </row>
+    <row r="90" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <v>72</v>
       </c>
@@ -5479,25 +5569,25 @@
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
     </row>
-    <row r="91" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="11">
         <v>73</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
       <c r="F91" s="14"/>
-      <c r="G91" s="46"/>
-    </row>
-    <row r="92" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="G91" s="36"/>
+    </row>
+    <row r="92" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="11">
         <v>74</v>
       </c>
-      <c r="C92" s="47"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="15"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
     </row>
-    <row r="93" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="11">
         <v>75</v>
       </c>
@@ -5506,7 +5596,7 @@
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="11">
         <v>76</v>
       </c>
@@ -5515,7 +5605,7 @@
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
     </row>
-    <row r="95" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11">
         <v>77</v>
       </c>
@@ -5524,7 +5614,7 @@
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
     </row>
-    <row r="96" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="11">
         <v>78</v>
       </c>
@@ -5533,7 +5623,7 @@
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="11">
         <v>79</v>
       </c>
@@ -5542,7 +5632,7 @@
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="11">
         <v>80</v>
       </c>
@@ -5551,7 +5641,7 @@
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="11">
         <v>81</v>
       </c>
@@ -5560,7 +5650,7 @@
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11">
         <v>82</v>
       </c>
@@ -5569,7 +5659,7 @@
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="11">
         <v>83</v>
       </c>
@@ -5578,7 +5668,7 @@
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
     </row>
-    <row r="102" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="11">
         <v>84</v>
       </c>
@@ -5587,7 +5677,7 @@
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
     </row>
-    <row r="103" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="11">
         <v>85</v>
       </c>
@@ -5596,7 +5686,7 @@
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
     </row>
-    <row r="104" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="11">
         <v>86</v>
       </c>
@@ -5605,7 +5695,7 @@
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
     </row>
-    <row r="105" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="11">
         <v>87</v>
       </c>
@@ -5615,7 +5705,7 @@
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11">
         <v>88</v>
       </c>
@@ -5625,7 +5715,7 @@
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
     </row>
-    <row r="107" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="11">
         <v>89</v>
       </c>
@@ -5635,7 +5725,7 @@
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11">
         <v>90</v>
       </c>
@@ -5645,7 +5735,7 @@
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
     </row>
-    <row r="109" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="11">
         <v>91</v>
       </c>
@@ -5655,7 +5745,7 @@
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
     </row>
-    <row r="110" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11">
         <v>92</v>
       </c>
@@ -5665,7 +5755,7 @@
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
     </row>
-    <row r="111" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="11">
         <v>93</v>
       </c>
@@ -5674,7 +5764,7 @@
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
     </row>
-    <row r="112" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11">
         <v>94</v>
       </c>
@@ -5684,7 +5774,7 @@
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
     </row>
-    <row r="113" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="11">
         <v>95</v>
       </c>
@@ -5694,7 +5784,7 @@
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
     </row>
-    <row r="114" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="11">
         <v>96</v>
       </c>
@@ -5704,7 +5794,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="11">
         <v>97</v>
       </c>
@@ -5714,7 +5804,7 @@
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
     </row>
-    <row r="116" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="11">
         <v>98</v>
       </c>
@@ -5724,7 +5814,7 @@
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
     </row>
-    <row r="117" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="11">
         <v>99</v>
       </c>
@@ -5734,7 +5824,7 @@
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
     </row>
-    <row r="118" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="11">
         <v>100</v>
       </c>
@@ -5769,26 +5859,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="17" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="51" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B2" s="51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" s="38" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -5803,12 +5893,12 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -5822,12 +5912,12 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -5841,7 +5931,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -5854,152 +5944,152 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="10" spans="1:17" s="52" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B10" s="52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6013,9 +6103,9 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -6028,275 +6118,275 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G97"/>
     </row>
-    <row r="98" spans="2:17" s="52" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B98" s="52" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B98" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G99"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="E101" s="3"/>
       <c r="F101"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" t="str" cm="1">
         <f t="array" ref="B103:B106">_carb_only_table_01[]</f>
         <v>An intentional or allowable vent (i.e. the operator was aware of, and/or would not repair)</v>
@@ -6305,7 +6395,7 @@
       <c r="F103"/>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" t="str">
         <v>An unintentional leak (i.e. the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -6313,7 +6403,7 @@
       <c r="F104"/>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" t="str">
         <v>Due to a temporary activity (i.e. would be resolved without corrective action when the activity is completed)</v>
       </c>
@@ -6321,7 +6411,7 @@
       <c r="F105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" t="str">
         <v>Operator was aware of the leak prior to receiving the CARB plume notification and/or repairs were in progress</v>
       </c>
@@ -6329,477 +6419,477 @@
       <c r="F106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E107" s="3"/>
       <c r="F107"/>
       <c r="Q107"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E108" s="3"/>
       <c r="F108"/>
       <c r="Q108"/>
     </row>
-    <row r="109" spans="2:17" s="52" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B109" s="52" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B109" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E110" s="3"/>
       <c r="F110"/>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111"/>
       <c r="Q111"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="E112" s="3"/>
       <c r="F112"/>
       <c r="Q112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="str" cm="1">
         <f t="array" ref="B114:B125">_carb_only_table_02[]</f>
         <v>Animal housing/barn/corral/lot</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="str">
         <v>Biogas conditioning/upgrading equipment</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="str">
         <v>Biogas moving/handling equipment</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="str">
         <v>Digester cover</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="str">
         <v>Effluent pond</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="str">
         <v>Interconnection/pipeline</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="str">
         <v>Manure collection pit</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="str">
         <v>Manure separator</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="str">
         <v>Open lagoon</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="str">
         <v xml:space="preserve">Other </v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="str">
         <v>Other digester component</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="str">
         <v>Stacking slab/stockpile/other manure storage</v>
       </c>
     </row>
-    <row r="128" spans="2:2" s="52" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B128" s="52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:2" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B128" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E129" s="3"/>
       <c r="F129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
       <c r="E131" s="3"/>
       <c r="F131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" t="str" cm="1">
         <f t="array" ref="B133:B139">_carb_only_table_03[]</f>
         <v>Construction activity</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" t="str">
         <v>Damaged/broken component (e.g. tear in digester cover, loose flange/port/seal)</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" t="str">
         <v>Maintenance/repair/testing activity</v>
       </c>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" t="str">
         <v>Manure management activity</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" t="str">
         <v>Other</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" t="str">
         <v>Venting-emergency/temporary</v>
       </c>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" t="str">
         <v>Venting-intentional/routine</v>
       </c>
     </row>
-    <row r="142" spans="2:17" s="52" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B142" s="52" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B142" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E143" s="3"/>
       <c r="F143"/>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144"/>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="E145" s="3"/>
       <c r="F145"/>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" t="str" cm="1">
         <f t="array" ref="B147:B148">_carb_only_table_04[]</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B148" t="str">
         <v>No</v>
       </c>
     </row>
-    <row r="151" spans="2:17" s="52" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B151" s="52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B151" s="39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E152" s="3"/>
       <c r="F152"/>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153"/>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="E154" s="3"/>
       <c r="F154"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156" t="str" cm="1">
         <f t="array" ref="B156:B187">_carb_only_table_05[]</f>
         <v>Advanced solid-liquid separation by flocculation</v>
       </c>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157" t="str">
         <v>Anaerobic digester</v>
       </c>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158" t="str">
         <v>Anaerobic Lagoon</v>
       </c>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159" t="str">
         <v>Centrifuge/decanter</v>
       </c>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160" t="str">
         <v>Compost bedded pack barn</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="str">
         <v>Composting aerated</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="str">
         <v>Composting in vessel</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="str">
         <v>Composting windrows</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="str">
         <v>Daily spread</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="str">
         <v>Dry lot/corral</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="str">
         <v>Fertigation</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="str">
         <v>Land application (flood)</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="str">
         <v>Land application (subsurface drip)</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="str">
         <v>Liquid/flush manure collection</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="str">
         <v>Liquid/slurry</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="str">
         <v>Other mechanical solid-liquid separator</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="str">
         <v>Pasture</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="str">
         <v>Processing pit</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="str">
         <v>Roller drum separator</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="str">
         <v>Sand lane</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="str">
         <v>Screw press separator</v>
       </c>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" t="str">
         <v>Settling basin</v>
       </c>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178" t="str">
         <v>Slatted floor pit storage</v>
       </c>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179" t="str">
         <v>Sloped screen separator</v>
       </c>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" t="str">
         <v>Solar drying</v>
       </c>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181" t="str">
         <v>Solid storage</v>
       </c>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182" t="str">
         <v>Solid/dry scrape manure collection</v>
       </c>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183" t="str">
         <v>Stationary screen separator</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B184" t="str">
         <v>Vacuum manure collection</v>
       </c>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B185" t="str">
         <v>Vermifiltration</v>
       </c>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B186" t="str">
         <v>Vibrating screen separator</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B187" t="str">
         <v>Weeping wall</v>
       </c>
     </row>
-    <row r="190" spans="2:17" s="52" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B190" s="52" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B190" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E191" s="3"/>
       <c r="F191"/>
       <c r="Q191"/>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192"/>
       <c r="Q192"/>
     </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="E193" s="3"/>
       <c r="F193"/>
       <c r="Q193"/>
     </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195" t="str" cm="1">
         <f t="array" ref="B195:B204">_carb_only_table_06[]</f>
         <v>Biogas conditioning (e.g. hydrogen sulfide moisture particulate removal)</v>
       </c>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196" t="str">
         <v>Biogas moving and handling equipement (e.g. blower collection box pre-conditioning gas pipelines)</v>
       </c>
     </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197" t="str">
         <v>Biomethane upgrading</v>
       </c>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198" t="str">
         <v>Covered lagoon anaerobic digester</v>
       </c>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199" t="str">
         <v>Electricity generation</v>
       </c>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200" t="str">
         <v>Heating/process fuel equipment</v>
       </c>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201" t="str">
         <v>Interconnection point of receipt (including biomethane quality testing)</v>
       </c>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202" t="str">
         <v>In-vessel anaerobic digester</v>
       </c>
     </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B203" t="str">
         <v>Onsite fuel use or dispensing</v>
       </c>
     </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B204" t="str">
         <v>Pipeline lateral</v>
       </c>
@@ -6825,64 +6915,64 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6897,76 +6987,76 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6978,723 +7068,1125 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D56CBE-D6C9-4948-B09E-324460C47E3F}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:F48"/>
+  <dimension ref="A2:F81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11:F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="C2" s="13"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
+        <v>243</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>244</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
+        <v>245</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>246</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
+        <v>247</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>248</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
+        <v>249</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>250</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
+        <v>251</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>252</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
+        <v>253</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>254</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
+        <v>255</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>256</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
+        <v>257</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>258</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
+        <v>259</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>260</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
+        <v>261</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>262</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F30">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="b">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" t="b">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
       <c r="F32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
-        <v>45152</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="18">
-        <v>45277</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="F36">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="18">
-        <v>45276</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>35.321100000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>35.321100000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>-119.5808</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="F40" s="67">
+        <v>45152.53125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>-119.5808</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="F42">
+        <v>35.321100000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="18">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="18">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="F44">
+        <v>-119.5808</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
+        <v>276</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>277</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" t="s">
-        <v>121</v>
+        <v>227</v>
+      </c>
+      <c r="D47" s="66" t="s">
+        <v>278</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" t="s">
-        <v>123</v>
+        <v>229</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>279</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="18">
-        <v>85</v>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>288</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" t="s">
+        <v>309</v>
+      </c>
+      <c r="D68" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>323</v>
+      </c>
+      <c r="D75" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="67">
+        <v>45275.53125</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="18">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>329</v>
+      </c>
+      <c r="D81" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F81">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
   </sortState>
@@ -7704,15 +8196,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7947,7 +8430,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
@@ -7958,15 +8441,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7985,7 +8469,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7996,6 +8480,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/current_versions/dairy_digester_operator_feedback_v003.xlsx
+++ b/feedback_forms/current_versions/dairy_digester_operator_feedback_v003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C49A8B-79F2-4A81-89BC-D71A9F863F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75442F-C8AD-4236-B4A3-4EA907C873BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="1590" windowWidth="21600" windowHeight="11100" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4877" yWindow="1637" windowWidth="16346" windowHeight="13260" tabRatio="705" activeTab="5" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -1181,9 +1181,6 @@
     <t>sector</t>
   </si>
   <si>
-    <t>dairy_digester</t>
-  </si>
-  <si>
     <t>Red (alert) color</t>
   </si>
   <si>
@@ -1629,6 +1626,9 @@
   </si>
   <si>
     <t>jinji_transport_recipient</t>
+  </si>
+  <si>
+    <t>Dairy Digester</t>
   </si>
 </sst>
 </file>
@@ -3353,19 +3353,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.15234375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.15234375" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3389,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -3398,7 +3400,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="3" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
@@ -3407,13 +3409,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="51"/>
     </row>
-    <row r="4" spans="2:21" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -3437,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3459,12 +3461,12 @@
       <c r="T6" s="53"/>
       <c r="U6" s="53"/>
     </row>
-    <row r="7" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="54" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3475,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="50"/>
     </row>
-    <row r="9" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="55" t="s">
         <v>4</v>
       </c>
@@ -3482,7 +3484,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="50"/>
     </row>
-    <row r="10" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B10" s="56" t="s">
         <v>5</v>
       </c>
@@ -3491,7 +3493,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="50"/>
     </row>
-    <row r="11" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B11" s="54" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3502,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="54" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3511,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="50"/>
     </row>
-    <row r="13" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="54" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3520,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="54" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3529,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B15" s="57" t="s">
         <v>10</v>
       </c>
@@ -3551,7 +3553,7 @@
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
     </row>
-    <row r="16" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B16" s="54" t="s">
         <v>11</v>
       </c>
@@ -3560,7 +3562,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="50"/>
     </row>
-    <row r="17" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B17" s="58" t="s">
         <v>12</v>
       </c>
@@ -3569,12 +3571,12 @@
       <c r="E17" s="25"/>
       <c r="F17" s="50"/>
     </row>
-    <row r="18" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U18" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -3596,12 +3598,12 @@
       <c r="T19" s="53"/>
       <c r="U19" s="53"/>
     </row>
-    <row r="20" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U20" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B21" s="54" t="s">
         <v>13</v>
       </c>
@@ -3611,7 +3613,7 @@
       </c>
       <c r="E21" s="54"/>
     </row>
-    <row r="22" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B22" s="54" t="s">
         <v>14</v>
       </c>
@@ -3621,7 +3623,7 @@
       </c>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="54" t="s">
         <v>15</v>
       </c>
@@ -3631,7 +3633,7 @@
       </c>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B24" s="54" t="s">
         <v>16</v>
       </c>
@@ -3641,7 +3643,7 @@
       </c>
       <c r="E24" s="54"/>
     </row>
-    <row r="25" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B25" s="54" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3653,7 @@
       </c>
       <c r="E25" s="54"/>
     </row>
-    <row r="26" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B26" s="54" t="s">
         <v>18</v>
       </c>
@@ -3662,12 +3664,12 @@
       <c r="E26" s="54"/>
       <c r="F26" s="50"/>
     </row>
-    <row r="27" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U27" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -3689,12 +3691,12 @@
       <c r="T28" s="53"/>
       <c r="U28" s="53"/>
     </row>
-    <row r="29" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U29" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B30" s="35" t="s">
         <v>20</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B31" s="35" t="s">
         <v>22</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B32" s="35" t="s">
         <v>24</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" s="11" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B33" s="50" t="s">
         <v>26</v>
       </c>
@@ -3728,7 +3730,7 @@
       </c>
       <c r="E33" s="51"/>
     </row>
-    <row r="34" spans="2:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" s="11" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B34" s="50" t="s">
         <v>28</v>
       </c>
@@ -3738,7 +3740,7 @@
       </c>
       <c r="E34" s="51"/>
     </row>
-    <row r="35" spans="2:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" s="11" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B35" s="50" t="s">
         <v>30</v>
       </c>
@@ -3748,12 +3750,12 @@
       </c>
       <c r="E35" s="51"/>
     </row>
-    <row r="36" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U36" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
@@ -3775,12 +3777,12 @@
       <c r="T37" s="53"/>
       <c r="U37" s="53"/>
     </row>
-    <row r="38" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U38" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:21" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" s="11" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B39" s="50" t="s">
         <v>32</v>
       </c>
@@ -3790,14 +3792,14 @@
       </c>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" spans="2:21" s="11" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" s="11" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B40" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="51"/>
       <c r="D40" s="62"/>
     </row>
-    <row r="41" spans="2:21" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B41" s="28" t="s">
         <v>34</v>
       </c>
@@ -3806,14 +3808,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:21" s="11" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21" s="11" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="62"/>
     </row>
-    <row r="43" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:21" s="11" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="28" t="s">
         <v>36</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:21" s="11" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="28" t="s">
         <v>38</v>
       </c>
@@ -3831,14 +3833,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:21" s="11" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:21" s="11" customFormat="1" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="51"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:21" s="11" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="50" t="s">
         <v>40</v>
       </c>
@@ -3847,18 +3849,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:21" s="11" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" s="11" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B47" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U48" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
@@ -3880,13 +3882,13 @@
       <c r="T49" s="53"/>
       <c r="U49" s="53"/>
     </row>
-    <row r="50" spans="2:21" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:21" s="20" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="50"/>
       <c r="U50" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" s="11" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21" s="11" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="50" t="s">
         <v>42</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:21" s="11" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" s="11" customFormat="1" ht="15.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B52" s="50" t="s">
         <v>43</v>
       </c>
@@ -3903,18 +3905,18 @@
         <v>45275.53125</v>
       </c>
     </row>
-    <row r="53" spans="2:21" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" s="11" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B53" s="50" t="s">
         <v>44</v>
       </c>
       <c r="D53" s="62"/>
     </row>
-    <row r="54" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
       <c r="D54" s="51"/>
     </row>
-    <row r="55" spans="2:21" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" s="24" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
       <c r="D55" s="52"/>
@@ -3936,12 +3938,12 @@
       <c r="T55" s="53"/>
       <c r="U55" s="53"/>
     </row>
-    <row r="56" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="U56" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21" s="11" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" s="11" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B57" s="28" t="s">
         <v>45</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B58" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B51) &lt;= 60,
@@ -3966,7 +3968,7 @@
       <c r="C58" s="65"/>
       <c r="D58" s="48"/>
     </row>
-    <row r="59" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B59" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B52) &lt;= 60,
@@ -3982,7 +3984,7 @@
       <c r="C59" s="65"/>
       <c r="D59" s="48"/>
     </row>
-    <row r="60" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B60" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B53) &lt;= 60,
@@ -3998,7 +4000,7 @@
       <c r="C60" s="65"/>
       <c r="D60" s="48"/>
     </row>
-    <row r="61" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B61" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B54) &lt;= 60,
@@ -4014,7 +4016,7 @@
       <c r="C61" s="65"/>
       <c r="D61" s="48"/>
     </row>
-    <row r="62" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B62" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B55) &lt;= 60,
@@ -4030,7 +4032,7 @@
       <c r="C62" s="65"/>
       <c r="D62" s="48"/>
     </row>
-    <row r="63" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B63" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B56) &lt;= 60,
@@ -4046,7 +4048,7 @@
       <c r="C63" s="65"/>
       <c r="D63" s="48"/>
     </row>
-    <row r="64" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B64" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B57) &lt;= 60,
@@ -4062,7 +4064,7 @@
       <c r="C64" s="65"/>
       <c r="D64" s="48"/>
     </row>
-    <row r="65" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B65" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B58) &lt;= 60,
@@ -4078,7 +4080,7 @@
       <c r="C65" s="65"/>
       <c r="D65" s="48"/>
     </row>
-    <row r="66" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B66" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B59) &lt;= 60,
@@ -4094,7 +4096,7 @@
       <c r="C66" s="65"/>
       <c r="D66" s="48"/>
     </row>
-    <row r="67" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B67" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B60) &lt;= 60,
@@ -4110,7 +4112,7 @@
       <c r="C67" s="65"/>
       <c r="D67" s="48"/>
     </row>
-    <row r="68" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B68" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B61) &lt;= 60,
@@ -4126,7 +4128,7 @@
       <c r="C68" s="65"/>
       <c r="D68" s="48"/>
     </row>
-    <row r="69" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B69" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B62) &lt;= 60,
@@ -4142,7 +4144,7 @@
       <c r="C69" s="65"/>
       <c r="D69" s="48"/>
     </row>
-    <row r="70" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B70" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B63) &lt;= 60,
@@ -4158,7 +4160,7 @@
       <c r="C70" s="65"/>
       <c r="D70" s="48"/>
     </row>
-    <row r="71" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B71" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B64) &lt;= 60,
@@ -4174,7 +4176,7 @@
       <c r="C71" s="65"/>
       <c r="D71" s="48"/>
     </row>
-    <row r="72" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B72" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B65) &lt;= 60,
@@ -4190,7 +4192,7 @@
       <c r="C72" s="65"/>
       <c r="D72" s="48"/>
     </row>
-    <row r="73" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B73" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B66) &lt;= 60,
@@ -4206,7 +4208,7 @@
       <c r="C73" s="65"/>
       <c r="D73" s="48"/>
     </row>
-    <row r="74" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B74" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B67) &lt;= 60,
@@ -4222,7 +4224,7 @@
       <c r="C74" s="65"/>
       <c r="D74" s="48"/>
     </row>
-    <row r="75" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B75" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B68) &lt;= 60,
@@ -4238,7 +4240,7 @@
       <c r="C75" s="65"/>
       <c r="D75" s="48"/>
     </row>
-    <row r="76" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B76" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B69) &lt;= 60,
@@ -4254,7 +4256,7 @@
       <c r="C76" s="65"/>
       <c r="D76" s="48"/>
     </row>
-    <row r="77" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B77" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B70) &lt;= 60,
@@ -4270,7 +4272,7 @@
       <c r="C77" s="65"/>
       <c r="D77" s="48"/>
     </row>
-    <row r="78" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B78" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B71) &lt;= 60,
@@ -4286,7 +4288,7 @@
       <c r="C78" s="65"/>
       <c r="D78" s="48"/>
     </row>
-    <row r="79" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B79" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B72) &lt;= 60,
@@ -4302,7 +4304,7 @@
       <c r="C79" s="65"/>
       <c r="D79" s="48"/>
     </row>
-    <row r="80" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B80" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B73) &lt;= 60,
@@ -4318,7 +4320,7 @@
       <c r="C80" s="65"/>
       <c r="D80" s="48"/>
     </row>
-    <row r="81" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B81" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B74) &lt;= 60,
@@ -4334,7 +4336,7 @@
       <c r="C81" s="65"/>
       <c r="D81" s="48"/>
     </row>
-    <row r="82" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B82" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B75) &lt;= 60,
@@ -4350,7 +4352,7 @@
       <c r="C82" s="65"/>
       <c r="D82" s="48"/>
     </row>
-    <row r="83" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B83" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B76) &lt;= 60,
@@ -4366,7 +4368,7 @@
       <c r="C83" s="65"/>
       <c r="D83" s="48"/>
     </row>
-    <row r="84" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B84" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B77) &lt;= 60,
@@ -4382,7 +4384,7 @@
       <c r="C84" s="65"/>
       <c r="D84" s="48"/>
     </row>
-    <row r="85" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B85" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B78) &lt;= 60,
@@ -4398,7 +4400,7 @@
       <c r="C85" s="65"/>
       <c r="D85" s="48"/>
     </row>
-    <row r="86" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B86" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B79) &lt;= 60,
@@ -4414,7 +4416,7 @@
       <c r="C86" s="65"/>
       <c r="D86" s="48"/>
     </row>
-    <row r="87" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B87" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B80) &lt;= 60,
@@ -4430,7 +4432,7 @@
       <c r="C87" s="65"/>
       <c r="D87" s="48"/>
     </row>
-    <row r="88" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B88" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B81) &lt;= 60,
@@ -4446,7 +4448,7 @@
       <c r="C88" s="65"/>
       <c r="D88" s="48"/>
     </row>
-    <row r="89" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B89" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B82) &lt;= 60,
@@ -4462,7 +4464,7 @@
       <c r="C89" s="65"/>
       <c r="D89" s="48"/>
     </row>
-    <row r="90" spans="2:4" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" s="11" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28" t="s">
         <v>47</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B91" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B86) &lt;= 60,
@@ -4488,7 +4490,7 @@
       <c r="C91" s="65"/>
       <c r="D91" s="48"/>
     </row>
-    <row r="92" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B92" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B87) &lt;= 60,
@@ -4505,7 +4507,7 @@
       <c r="C92" s="65"/>
       <c r="D92" s="48"/>
     </row>
-    <row r="93" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B93" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B88) &lt;= 60,
@@ -4521,7 +4523,7 @@
       <c r="C93" s="65"/>
       <c r="D93" s="48"/>
     </row>
-    <row r="94" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B94" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B89) &lt;= 60,
@@ -4537,7 +4539,7 @@
       <c r="C94" s="65"/>
       <c r="D94" s="48"/>
     </row>
-    <row r="95" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B95" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B90) &lt;= 60,
@@ -4553,7 +4555,7 @@
       <c r="C95" s="65"/>
       <c r="D95" s="48"/>
     </row>
-    <row r="96" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B96" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B91) &lt;= 60,
@@ -4569,7 +4571,7 @@
       <c r="C96" s="65"/>
       <c r="D96" s="48"/>
     </row>
-    <row r="97" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B97" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B92) &lt;= 60,
@@ -4586,7 +4588,7 @@
       <c r="C97" s="65"/>
       <c r="D97" s="48"/>
     </row>
-    <row r="98" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B98" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B93) &lt;= 60,
@@ -4602,7 +4604,7 @@
       <c r="C98" s="65"/>
       <c r="D98" s="48"/>
     </row>
-    <row r="99" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B99" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B94) &lt;= 60,
@@ -4618,7 +4620,7 @@
       <c r="C99" s="65"/>
       <c r="D99" s="48"/>
     </row>
-    <row r="100" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B100" s="64" t="str">
         <f>IF(
   LEN(_carb_only!B95) &lt;= 60,
@@ -4634,37 +4636,37 @@
       <c r="C100" s="65"/>
       <c r="D100" s="48"/>
     </row>
-    <row r="101" spans="2:4" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" s="11" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B101" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D101" s="62"/>
     </row>
-    <row r="102" spans="2:4" s="11" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" s="11" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B102" s="28" t="s">
         <v>49</v>
       </c>
       <c r="D102" s="62"/>
     </row>
-    <row r="103" spans="2:4" s="11" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" s="11" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B103" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D103" s="62"/>
     </row>
-    <row r="104" spans="2:4" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" s="11" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B104" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D104" s="62"/>
     </row>
-    <row r="105" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B105" s="51"/>
       <c r="D105" s="29"/>
     </row>
-    <row r="106" spans="2:4" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="2:4" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="2:4" s="11" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" s="30" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" spans="2:4" s="30" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="108" spans="2:4" s="11" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B108" s="28" t="s">
         <v>52</v>
       </c>
@@ -4715,18 +4717,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="12" t="s">
         <v>53</v>
       </c>
@@ -4734,7 +4736,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4748,7 +4750,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -4756,15 +4758,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>57</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="11" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" s="14" t="s">
         <v>59</v>
       </c>
@@ -4783,7 +4785,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="11" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>61</v>
       </c>
@@ -4794,7 +4796,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="11" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
         <v>63</v>
       </c>
@@ -4805,7 +4807,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
@@ -4816,15 +4818,15 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" s="11"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
         <v>67</v>
       </c>
@@ -4841,7 +4843,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -4855,7 +4857,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>68</v>
       </c>
@@ -4886,7 +4888,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" s="11" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B19" s="11">
         <v>1</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" s="11" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="B20" s="11">
         <v>2</v>
       </c>
@@ -4926,7 +4928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" s="11" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B21" s="11">
         <v>3</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11">
         <v>4</v>
       </c>
@@ -4955,7 +4957,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11">
         <v>5</v>
       </c>
@@ -4964,7 +4966,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11">
         <v>6</v>
       </c>
@@ -4973,7 +4975,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11">
         <v>7</v>
       </c>
@@ -4982,7 +4984,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="11">
         <v>8</v>
       </c>
@@ -4991,7 +4993,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="11">
         <v>9</v>
       </c>
@@ -5000,7 +5002,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11">
         <v>10</v>
       </c>
@@ -5009,7 +5011,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="11">
         <v>11</v>
       </c>
@@ -5018,7 +5020,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="11">
         <v>12</v>
       </c>
@@ -5027,7 +5029,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11">
         <v>13</v>
       </c>
@@ -5036,7 +5038,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11">
         <v>14</v>
       </c>
@@ -5045,7 +5047,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="11">
         <v>15</v>
       </c>
@@ -5054,7 +5056,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11">
         <v>16</v>
       </c>
@@ -5063,7 +5065,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="11">
         <v>17</v>
       </c>
@@ -5072,7 +5074,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11">
         <v>18</v>
       </c>
@@ -5081,7 +5083,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11">
         <v>19</v>
       </c>
@@ -5090,7 +5092,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="11">
         <v>20</v>
       </c>
@@ -5099,7 +5101,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="11">
         <v>21</v>
       </c>
@@ -5108,7 +5110,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="11">
         <v>22</v>
       </c>
@@ -5117,7 +5119,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11">
         <v>23</v>
       </c>
@@ -5126,7 +5128,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="11">
         <v>24</v>
       </c>
@@ -5135,7 +5137,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="11">
         <v>25</v>
       </c>
@@ -5144,7 +5146,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="11">
         <v>26</v>
       </c>
@@ -5153,7 +5155,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11">
         <v>27</v>
       </c>
@@ -5162,7 +5164,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="11">
         <v>28</v>
       </c>
@@ -5171,7 +5173,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="11">
         <v>29</v>
       </c>
@@ -5180,7 +5182,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="11">
         <v>30</v>
       </c>
@@ -5189,7 +5191,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="11">
         <v>31</v>
       </c>
@@ -5198,7 +5200,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B50" s="11">
         <v>32</v>
       </c>
@@ -5207,7 +5209,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="11">
         <v>33</v>
       </c>
@@ -5216,7 +5218,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="11">
         <v>34</v>
       </c>
@@ -5225,7 +5227,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="11">
         <v>35</v>
       </c>
@@ -5234,7 +5236,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" s="11">
         <v>36</v>
       </c>
@@ -5243,7 +5245,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="11">
         <v>37</v>
       </c>
@@ -5252,7 +5254,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="11">
         <v>38</v>
       </c>
@@ -5261,7 +5263,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11">
         <v>39</v>
       </c>
@@ -5271,7 +5273,7 @@
       <c r="G57" s="14"/>
       <c r="L57" s="41"/>
     </row>
-    <row r="58" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11">
         <v>40</v>
       </c>
@@ -5280,7 +5282,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="11">
         <v>41</v>
       </c>
@@ -5289,7 +5291,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B60" s="11">
         <v>42</v>
       </c>
@@ -5298,7 +5300,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B61" s="11">
         <v>43</v>
       </c>
@@ -5307,7 +5309,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="11">
         <v>44</v>
       </c>
@@ -5316,7 +5318,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11">
         <v>45</v>
       </c>
@@ -5325,7 +5327,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11">
         <v>46</v>
       </c>
@@ -5334,7 +5336,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11">
         <v>47</v>
       </c>
@@ -5343,7 +5345,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11">
         <v>48</v>
       </c>
@@ -5352,7 +5354,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="11">
         <v>49</v>
       </c>
@@ -5361,7 +5363,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11">
         <v>50</v>
       </c>
@@ -5370,7 +5372,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" s="11">
         <v>51</v>
       </c>
@@ -5379,7 +5381,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="11">
         <v>52</v>
       </c>
@@ -5388,7 +5390,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="11">
         <v>53</v>
       </c>
@@ -5397,7 +5399,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="11">
         <v>54</v>
       </c>
@@ -5406,7 +5408,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" s="11">
         <v>55</v>
       </c>
@@ -5415,7 +5417,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B74" s="11">
         <v>56</v>
       </c>
@@ -5424,7 +5426,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B75" s="11">
         <v>57</v>
       </c>
@@ -5433,7 +5435,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B76" s="11">
         <v>58</v>
       </c>
@@ -5442,7 +5444,7 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B77" s="11">
         <v>59</v>
       </c>
@@ -5451,7 +5453,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="11">
         <v>60</v>
       </c>
@@ -5460,7 +5462,7 @@
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B79" s="11">
         <v>61</v>
       </c>
@@ -5469,7 +5471,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B80" s="11">
         <v>62</v>
       </c>
@@ -5478,7 +5480,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B81" s="11">
         <v>63</v>
       </c>
@@ -5487,7 +5489,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B82" s="11">
         <v>64</v>
       </c>
@@ -5496,7 +5498,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="11">
         <v>65</v>
       </c>
@@ -5505,7 +5507,7 @@
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B84" s="11">
         <v>66</v>
       </c>
@@ -5515,7 +5517,7 @@
       <c r="F84" s="14"/>
       <c r="G84" s="42"/>
     </row>
-    <row r="85" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" s="11">
         <v>67</v>
       </c>
@@ -5524,7 +5526,7 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="11">
         <v>68</v>
       </c>
@@ -5533,7 +5535,7 @@
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B87" s="11">
         <v>69</v>
       </c>
@@ -5542,7 +5544,7 @@
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B88" s="11">
         <v>70</v>
       </c>
@@ -5551,7 +5553,7 @@
       <c r="F88" s="14"/>
       <c r="G88" s="36"/>
     </row>
-    <row r="89" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="11">
         <v>71</v>
       </c>
@@ -5560,7 +5562,7 @@
       <c r="F89" s="14"/>
       <c r="G89" s="36"/>
     </row>
-    <row r="90" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B90" s="11">
         <v>72</v>
       </c>
@@ -5569,7 +5571,7 @@
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
     </row>
-    <row r="91" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="11">
         <v>73</v>
       </c>
@@ -5578,7 +5580,7 @@
       <c r="F91" s="14"/>
       <c r="G91" s="36"/>
     </row>
-    <row r="92" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="11">
         <v>74</v>
       </c>
@@ -5587,7 +5589,7 @@
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
     </row>
-    <row r="93" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="11">
         <v>75</v>
       </c>
@@ -5596,7 +5598,7 @@
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="11">
         <v>76</v>
       </c>
@@ -5605,7 +5607,7 @@
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
     </row>
-    <row r="95" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="11">
         <v>77</v>
       </c>
@@ -5614,7 +5616,7 @@
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
     </row>
-    <row r="96" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B96" s="11">
         <v>78</v>
       </c>
@@ -5623,7 +5625,7 @@
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B97" s="11">
         <v>79</v>
       </c>
@@ -5632,7 +5634,7 @@
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="11">
         <v>80</v>
       </c>
@@ -5641,7 +5643,7 @@
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="11">
         <v>81</v>
       </c>
@@ -5650,7 +5652,7 @@
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="11">
         <v>82</v>
       </c>
@@ -5659,7 +5661,7 @@
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="11">
         <v>83</v>
       </c>
@@ -5668,7 +5670,7 @@
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
     </row>
-    <row r="102" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B102" s="11">
         <v>84</v>
       </c>
@@ -5677,7 +5679,7 @@
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
     </row>
-    <row r="103" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B103" s="11">
         <v>85</v>
       </c>
@@ -5686,7 +5688,7 @@
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
     </row>
-    <row r="104" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="11">
         <v>86</v>
       </c>
@@ -5695,7 +5697,7 @@
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
     </row>
-    <row r="105" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="11">
         <v>87</v>
       </c>
@@ -5705,7 +5707,7 @@
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="11">
         <v>88</v>
       </c>
@@ -5715,7 +5717,7 @@
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
     </row>
-    <row r="107" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="11">
         <v>89</v>
       </c>
@@ -5725,7 +5727,7 @@
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="11">
         <v>90</v>
       </c>
@@ -5735,7 +5737,7 @@
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
     </row>
-    <row r="109" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="11">
         <v>91</v>
       </c>
@@ -5745,7 +5747,7 @@
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
     </row>
-    <row r="110" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" s="11">
         <v>92</v>
       </c>
@@ -5755,7 +5757,7 @@
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
     </row>
-    <row r="111" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="11">
         <v>93</v>
       </c>
@@ -5764,7 +5766,7 @@
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
     </row>
-    <row r="112" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" s="11">
         <v>94</v>
       </c>
@@ -5774,7 +5776,7 @@
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
     </row>
-    <row r="113" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="11">
         <v>95</v>
       </c>
@@ -5784,7 +5786,7 @@
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
     </row>
-    <row r="114" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="11">
         <v>96</v>
       </c>
@@ -5794,7 +5796,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B115" s="11">
         <v>97</v>
       </c>
@@ -5804,7 +5806,7 @@
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
     </row>
-    <row r="116" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B116" s="11">
         <v>98</v>
       </c>
@@ -5814,7 +5816,7 @@
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
     </row>
-    <row r="117" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" s="11">
         <v>99</v>
       </c>
@@ -5824,7 +5826,7 @@
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
     </row>
-    <row r="118" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="11">
         <v>100</v>
       </c>
@@ -5859,21 +5861,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="17" width="16.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="92.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.15234375" customWidth="1"/>
+    <col min="4" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="17" width="16.69140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="38" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="38" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -5893,7 +5895,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -5912,7 +5914,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5931,7 +5933,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -5944,150 +5946,150 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="10" spans="1:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>113</v>
       </c>
@@ -6103,7 +6105,7 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>114</v>
       </c>
@@ -6118,253 +6120,253 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G97"/>
     </row>
-    <row r="98" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G99"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B100" s="8" t="s">
         <v>160</v>
       </c>
@@ -6372,13 +6374,13 @@
       <c r="F100"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B101" s="7"/>
       <c r="E101" s="3"/>
       <c r="F101"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>37</v>
       </c>
@@ -6386,7 +6388,7 @@
       <c r="F102"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B103" t="str" cm="1">
         <f t="array" ref="B103:B106">_carb_only_table_01[]</f>
         <v>An intentional or allowable vent (i.e. the operator was aware of, and/or would not repair)</v>
@@ -6395,7 +6397,7 @@
       <c r="F103"/>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B104" t="str">
         <v>An unintentional leak (i.e. the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -6403,7 +6405,7 @@
       <c r="F104"/>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B105" t="str">
         <v>Due to a temporary activity (i.e. would be resolved without corrective action when the activity is completed)</v>
       </c>
@@ -6411,7 +6413,7 @@
       <c r="F105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B106" t="str">
         <v>Operator was aware of the leak prior to receiving the CARB plume notification and/or repairs were in progress</v>
       </c>
@@ -6419,27 +6421,27 @@
       <c r="F106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E107" s="3"/>
       <c r="F107"/>
       <c r="Q107"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E108" s="3"/>
       <c r="F108"/>
       <c r="Q108"/>
     </row>
-    <row r="109" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E110" s="3"/>
       <c r="F110"/>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B111" s="8" t="s">
         <v>160</v>
       </c>
@@ -6447,89 +6449,89 @@
       <c r="F111"/>
       <c r="Q111"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B112" s="7"/>
       <c r="E112" s="3"/>
       <c r="F112"/>
       <c r="Q112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B114" t="str" cm="1">
         <f t="array" ref="B114:B125">_carb_only_table_02[]</f>
         <v>Animal housing/barn/corral/lot</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B115" t="str">
         <v>Biogas conditioning/upgrading equipment</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B116" t="str">
         <v>Biogas moving/handling equipment</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B117" t="str">
         <v>Digester cover</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B118" t="str">
         <v>Effluent pond</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B119" t="str">
         <v>Interconnection/pipeline</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B120" t="str">
         <v>Manure collection pit</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B121" t="str">
         <v>Manure separator</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B122" t="str">
         <v>Open lagoon</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B123" t="str">
         <v xml:space="preserve">Other </v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B124" t="str">
         <v>Other digester component</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B125" t="str">
         <v>Stacking slab/stockpile/other manure storage</v>
       </c>
     </row>
-    <row r="128" spans="2:2" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="39" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E129" s="3"/>
       <c r="F129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B130" s="8" t="s">
         <v>160</v>
       </c>
@@ -6537,64 +6539,64 @@
       <c r="F130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B131" s="7"/>
       <c r="E131" s="3"/>
       <c r="F131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B132" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B133" t="str" cm="1">
         <f t="array" ref="B133:B139">_carb_only_table_03[]</f>
         <v>Construction activity</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B134" t="str">
         <v>Damaged/broken component (e.g. tear in digester cover, loose flange/port/seal)</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B135" t="str">
         <v>Maintenance/repair/testing activity</v>
       </c>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B136" t="str">
         <v>Manure management activity</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B137" t="str">
         <v>Other</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B138" t="str">
         <v>Venting-emergency/temporary</v>
       </c>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B139" t="str">
         <v>Venting-intentional/routine</v>
       </c>
     </row>
-    <row r="142" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="39" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E143" s="3"/>
       <c r="F143"/>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B144" s="8" t="s">
         <v>160</v>
       </c>
@@ -6602,39 +6604,39 @@
       <c r="F144"/>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B145" s="7"/>
       <c r="E145" s="3"/>
       <c r="F145"/>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B146" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B147" t="str" cm="1">
         <f t="array" ref="B147:B148">_carb_only_table_04[]</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B148" t="str">
         <v>No</v>
       </c>
     </row>
-    <row r="151" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E152" s="3"/>
       <c r="F152"/>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B153" s="8" t="s">
         <v>160</v>
       </c>
@@ -6642,189 +6644,189 @@
       <c r="F153"/>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B154" s="7"/>
       <c r="E154" s="3"/>
       <c r="F154"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B156" t="str" cm="1">
         <f t="array" ref="B156:B187">_carb_only_table_05[]</f>
         <v>Advanced solid-liquid separation by flocculation</v>
       </c>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B157" t="str">
         <v>Anaerobic digester</v>
       </c>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B158" t="str">
         <v>Anaerobic Lagoon</v>
       </c>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B159" t="str">
         <v>Centrifuge/decanter</v>
       </c>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B160" t="str">
         <v>Compost bedded pack barn</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B161" t="str">
         <v>Composting aerated</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B162" t="str">
         <v>Composting in vessel</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B163" t="str">
         <v>Composting windrows</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B164" t="str">
         <v>Daily spread</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B165" t="str">
         <v>Dry lot/corral</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B166" t="str">
         <v>Fertigation</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B167" t="str">
         <v>Land application (flood)</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B168" t="str">
         <v>Land application (subsurface drip)</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B169" t="str">
         <v>Liquid/flush manure collection</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B170" t="str">
         <v>Liquid/slurry</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B171" t="str">
         <v>Other mechanical solid-liquid separator</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B172" t="str">
         <v>Pasture</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B173" t="str">
         <v>Processing pit</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B174" t="str">
         <v>Roller drum separator</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B175" t="str">
         <v>Sand lane</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B176" t="str">
         <v>Screw press separator</v>
       </c>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B177" t="str">
         <v>Settling basin</v>
       </c>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B178" t="str">
         <v>Slatted floor pit storage</v>
       </c>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B179" t="str">
         <v>Sloped screen separator</v>
       </c>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B180" t="str">
         <v>Solar drying</v>
       </c>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B181" t="str">
         <v>Solid storage</v>
       </c>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B182" t="str">
         <v>Solid/dry scrape manure collection</v>
       </c>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B183" t="str">
         <v>Stationary screen separator</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B184" t="str">
         <v>Vacuum manure collection</v>
       </c>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B185" t="str">
         <v>Vermifiltration</v>
       </c>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B186" t="str">
         <v>Vibrating screen separator</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B187" t="str">
         <v>Weeping wall</v>
       </c>
     </row>
-    <row r="190" spans="2:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:17" s="39" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="39" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E191" s="3"/>
       <c r="F191"/>
       <c r="Q191"/>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B192" s="8" t="s">
         <v>160</v>
       </c>
@@ -6832,64 +6834,64 @@
       <c r="F192"/>
       <c r="Q192"/>
     </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B193" s="7"/>
       <c r="E193" s="3"/>
       <c r="F193"/>
       <c r="Q193"/>
     </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B194" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B195" t="str" cm="1">
         <f t="array" ref="B195:B204">_carb_only_table_06[]</f>
         <v>Biogas conditioning (e.g. hydrogen sulfide moisture particulate removal)</v>
       </c>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B196" t="str">
         <v>Biogas moving and handling equipement (e.g. blower collection box pre-conditioning gas pipelines)</v>
       </c>
     </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B197" t="str">
         <v>Biomethane upgrading</v>
       </c>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B198" t="str">
         <v>Covered lagoon anaerobic digester</v>
       </c>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B199" t="str">
         <v>Electricity generation</v>
       </c>
     </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B200" t="str">
         <v>Heating/process fuel equipment</v>
       </c>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B201" t="str">
         <v>Interconnection point of receipt (including biomethane quality testing)</v>
       </c>
     </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B202" t="str">
         <v>In-vessel anaerobic digester</v>
       </c>
     </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B203" t="str">
         <v>Onsite fuel use or dispensing</v>
       </c>
     </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B204" t="str">
         <v>Pipeline lateral</v>
       </c>
@@ -6915,19 +6917,19 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -6935,7 +6937,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -6943,7 +6945,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -6959,7 +6961,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6" t="s">
         <v>171</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>173</v>
       </c>
@@ -6985,20 +6987,22 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -7030,12 +7034,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6" t="s">
         <v>178</v>
       </c>
@@ -7043,20 +7047,20 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>180</v>
       </c>
       <c r="C15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>182</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7070,425 +7074,446 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:F81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F81"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" customWidth="1"/>
+    <col min="4" max="4" width="51.84375" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="13"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>237</v>
+        <v>260</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>261</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>246</v>
+        <v>268</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>248</v>
+        <v>269</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>250</v>
+        <v>208</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="18">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>252</v>
+        <v>211</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>35.321100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>254</v>
+        <v>230</v>
+      </c>
+      <c r="D21" t="s">
+        <v>225</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>-119.5808</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>256</v>
+        <v>223</v>
+      </c>
+      <c r="D22" t="s">
+        <v>210</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>258</v>
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
+        <v>263</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>260</v>
+        <v>271</v>
+      </c>
+      <c r="D24" t="s">
+        <v>272</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>262</v>
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>267</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="67">
+        <v>45152.53125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>173</v>
       </c>
       <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
         <v>216</v>
-      </c>
-      <c r="D31" t="s">
-        <v>200</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
         <v>205</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -7497,689 +7522,668 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="67">
+        <v>45275.53125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="67">
-        <v>45152.53125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" t="s">
-        <v>225</v>
+        <v>275</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>276</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>35.321100000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" t="s">
-        <v>273</v>
+        <v>226</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>277</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>278</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44">
-        <v>-119.5808</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
-      </c>
-      <c r="D45" t="s">
-        <v>275</v>
+        <v>235</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>279</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="D56" s="66" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="D60" s="66" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="D73" s="66" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" t="s">
-        <v>228</v>
+        <v>250</v>
+      </c>
+      <c r="D77" s="66" t="s">
+        <v>251</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
-      </c>
-      <c r="D78" t="s">
-        <v>230</v>
+        <v>252</v>
+      </c>
+      <c r="D78" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="67">
-        <v>45275.53125</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
-      </c>
-      <c r="D79" t="s">
-        <v>232</v>
+        <v>256</v>
+      </c>
+      <c r="D79" s="66" t="s">
+        <v>257</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
-      <c r="F79" s="18">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>327</v>
-      </c>
-      <c r="D80" t="s">
-        <v>328</v>
+        <v>254</v>
+      </c>
+      <c r="D80" s="66" t="s">
+        <v>255</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>329</v>
-      </c>
-      <c r="D81" t="s">
-        <v>330</v>
+        <v>258</v>
+      </c>
+      <c r="D81" s="66" t="s">
+        <v>259</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
@@ -8187,8 +8191,8 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F81">
-    <sortCondition ref="A1:A1048576"/>
-    <sortCondition ref="B1:B1048576"/>
+    <sortCondition ref="B11:B81"/>
+    <sortCondition ref="C11:C81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
